--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -8,15 +8,26 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BrokerQuoteNo." sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BrokerPCHQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">GXJ64083 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RH-0695</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,8 +100,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -110,14 +130,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -20,12 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">GXJ64083 </t>
+    <t xml:space="preserve">TIM16509 </t>
   </si>
   <si>
-    <t xml:space="preserve">RH-0695</t>
+    <t xml:space="preserve">RR-4175</t>
+  </si>
+  <si>
+    <t>VQ-4307</t>
+  </si>
+  <si>
+    <t>YZN74314</t>
+  </si>
+  <si>
+    <t>ZA-8799</t>
+  </si>
+  <si>
+    <t>HKQ16823</t>
+  </si>
+  <si>
+    <t>BE-9566</t>
   </si>
 </sst>
 </file>
@@ -136,18 +151,18 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BrokerPCHQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BrokerBCHQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BrokerPCHQuoteNo" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,27 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
-    <t xml:space="preserve">TIM16509 </t>
+    <t xml:space="preserve">HKQ16823</t>
   </si>
   <si>
-    <t xml:space="preserve">RR-4175</t>
+    <t xml:space="preserve">BE-9566</t>
   </si>
   <si>
-    <t>VQ-4307</t>
-  </si>
-  <si>
-    <t>YZN74314</t>
-  </si>
-  <si>
-    <t>ZA-8799</t>
-  </si>
-  <si>
-    <t>HKQ16823</t>
-  </si>
-  <si>
-    <t>BE-9566</t>
+    <t>BRP41346</t>
   </si>
 </sst>
 </file>
@@ -151,14 +140,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -173,4 +162,39 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t xml:space="preserve">HKQ16823</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>BRP41346</t>
+  </si>
+  <si>
+    <t>ZLO20569</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t xml:space="preserve">HKQ16823</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>ZLO20569</t>
+  </si>
+  <si>
+    <t>SGC05531</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">HKQ16823</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>SGC05531</t>
+  </si>
+  <si>
+    <t>UZW74149</t>
+  </si>
+  <si>
+    <t>URL48088</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -185,7 +191,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BrokerBCHQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BrokerPCHQuoteNo" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BrokerPCHQuoteNo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BrokerBCHQuoteNo" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,27 +22,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">HKQ16823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE-9566</t>
-  </si>
-  <si>
-    <t>BRP41346</t>
-  </si>
-  <si>
-    <t>ZLO20569</t>
-  </si>
-  <si>
-    <t>SGC05531</t>
-  </si>
-  <si>
-    <t>UZW74149</t>
-  </si>
-  <si>
-    <t>URL48088</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t xml:space="preserve">HEJ93780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BII6501</t>
+  </si>
+  <si>
+    <t>VGB01378</t>
+  </si>
+  <si>
+    <t>HOH3588</t>
+  </si>
+  <si>
+    <t>SDF97315</t>
+  </si>
+  <si>
+    <t>LXA6016</t>
+  </si>
+  <si>
+    <t>SVM62910</t>
+  </si>
+  <si>
+    <t>HAZ7830</t>
+  </si>
+  <si>
+    <t>XSN57687</t>
+  </si>
+  <si>
+    <t>OOP3884</t>
+  </si>
+  <si>
+    <t>VNN33858</t>
+  </si>
+  <si>
+    <t>JJQ1413</t>
+  </si>
+  <si>
+    <t>OCU82034</t>
+  </si>
+  <si>
+    <t>SUI5353</t>
+  </si>
+  <si>
+    <t>IDX91620</t>
+  </si>
+  <si>
+    <t>KUB5582</t>
+  </si>
+  <si>
+    <t>GEU90401</t>
+  </si>
+  <si>
+    <t>BQQ4237</t>
+  </si>
+  <si>
+    <t>EJY13077</t>
+  </si>
+  <si>
+    <t>DHH05046</t>
+  </si>
+  <si>
+    <t>RLX7088</t>
+  </si>
+  <si>
+    <t>OUE54602</t>
+  </si>
+  <si>
+    <t>HET9137</t>
+  </si>
+  <si>
+    <t>JKY2092</t>
+  </si>
+  <si>
+    <t>GTJ5907</t>
+  </si>
+  <si>
+    <t>OVD69777</t>
+  </si>
+  <si>
+    <t>IZK7595</t>
+  </si>
+  <si>
+    <t>WLM26030</t>
+  </si>
+  <si>
+    <t>LVP6029</t>
+  </si>
+  <si>
+    <t>WKS18738</t>
+  </si>
+  <si>
+    <t>SWZ6926</t>
+  </si>
+  <si>
+    <t>OUN52641</t>
+  </si>
+  <si>
+    <t>BYV7989</t>
+  </si>
+  <si>
+    <t>NLJ29885</t>
+  </si>
+  <si>
+    <t>PYS7982</t>
+  </si>
+  <si>
+    <t>JJB19477</t>
+  </si>
+  <si>
+    <t>EXL6068</t>
+  </si>
+  <si>
+    <t>AZI73793</t>
+  </si>
+  <si>
+    <t>GLR2327</t>
+  </si>
+  <si>
+    <t>LOD35848</t>
+  </si>
+  <si>
+    <t>WLX2672</t>
+  </si>
+  <si>
+    <t>LBY88544</t>
+  </si>
+  <si>
+    <t>ZPY38391</t>
+  </si>
+  <si>
+    <t>ZUM5007</t>
+  </si>
+  <si>
+    <t>MBU89468</t>
+  </si>
+  <si>
+    <t>KBE86583</t>
+  </si>
+  <si>
+    <t>WIM1906</t>
+  </si>
+  <si>
+    <t>UZT72666</t>
+  </si>
+  <si>
+    <t>HBU8515</t>
+  </si>
+  <si>
+    <t>YSL56521</t>
+  </si>
+  <si>
+    <t>XOB3781</t>
+  </si>
+  <si>
+    <t>ETK51167</t>
+  </si>
+  <si>
+    <t>IVN6420</t>
+  </si>
+  <si>
+    <t>XYA78519</t>
+  </si>
+  <si>
+    <t>VSG4548</t>
+  </si>
+  <si>
+    <t>CQZ44826</t>
+  </si>
+  <si>
+    <t>UIP14131</t>
+  </si>
+  <si>
+    <t>ZXR6073</t>
   </si>
 </sst>
 </file>
@@ -116,59 +270,51 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A1" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -177,33 +323,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="A1" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>ZXR6073</t>
+  </si>
+  <si>
+    <t>HIC16569</t>
+  </si>
+  <si>
+    <t>GYQ73307</t>
   </si>
 </sst>
 </file>
@@ -304,8 +310,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>111</v>
+      <c r="A1" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -375,7 +381,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>GYQ73307</t>
+  </si>
+  <si>
+    <t>PBL82837</t>
+  </si>
+  <si>
+    <t>ELI29429</t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -381,7 +387,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>ELI29429</t>
+  </si>
+  <si>
+    <t>BAZ81264</t>
+  </si>
+  <si>
+    <t>YLM22162</t>
+  </si>
+  <si>
+    <t>MOM30341</t>
+  </si>
+  <si>
+    <t>IPL38284</t>
   </si>
 </sst>
 </file>
@@ -317,7 +329,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -387,7 +399,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t>IPL38284</t>
+  </si>
+  <si>
+    <t>UTN54596</t>
+  </si>
+  <si>
+    <t>QFO91266</t>
+  </si>
+  <si>
+    <t>EJG11414</t>
+  </si>
+  <si>
+    <t>HLF22821</t>
+  </si>
+  <si>
+    <t>MBF83484</t>
+  </si>
+  <si>
+    <t>MXU30862</t>
   </si>
 </sst>
 </file>
@@ -329,7 +347,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -399,7 +417,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>MXU30862</t>
+  </si>
+  <si>
+    <t>AIR17536</t>
+  </si>
+  <si>
+    <t>FIJ16684</t>
   </si>
 </sst>
 </file>
@@ -347,7 +353,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -417,7 +423,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>FIJ16684</t>
+  </si>
+  <si>
+    <t>QPV37590</t>
+  </si>
+  <si>
+    <t>ZGH01701</t>
+  </si>
+  <si>
+    <t>FKI10401</t>
+  </si>
+  <si>
+    <t>IMZ20364</t>
+  </si>
+  <si>
+    <t>RVN65930</t>
   </si>
 </sst>
 </file>
@@ -353,7 +368,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -423,7 +438,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t>RVN65930</t>
+  </si>
+  <si>
+    <t>XYS71503</t>
+  </si>
+  <si>
+    <t>MIV11116</t>
+  </si>
+  <si>
+    <t>RGX00662</t>
+  </si>
+  <si>
+    <t>GFG00117</t>
+  </si>
+  <si>
+    <t>NSW49721</t>
+  </si>
+  <si>
+    <t>TWV61794</t>
   </si>
 </sst>
 </file>
@@ -368,7 +386,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -438,7 +456,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>TWV61794</t>
+  </si>
+  <si>
+    <t>KWD66073</t>
+  </si>
+  <si>
+    <t>YFE04385</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -456,7 +462,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>YFE04385</t>
+  </si>
+  <si>
+    <t>KTQ57597</t>
+  </si>
+  <si>
+    <t>FLR25491</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -462,7 +468,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -289,6 +289,45 @@
   </si>
   <si>
     <t>FLR25491</t>
+  </si>
+  <si>
+    <t>TOT37451</t>
+  </si>
+  <si>
+    <t>EXG67457</t>
+  </si>
+  <si>
+    <t>AZR72135</t>
+  </si>
+  <si>
+    <t>ATA49106</t>
+  </si>
+  <si>
+    <t>IAU88786</t>
+  </si>
+  <si>
+    <t>GQE44599</t>
+  </si>
+  <si>
+    <t>GAC82890</t>
+  </si>
+  <si>
+    <t>JSP58941</t>
+  </si>
+  <si>
+    <t>EFU07805</t>
+  </si>
+  <si>
+    <t>WIY12380</t>
+  </si>
+  <si>
+    <t>CDT99671</t>
+  </si>
+  <si>
+    <t>MPZ95369</t>
+  </si>
+  <si>
+    <t>OFV11147</t>
   </si>
 </sst>
 </file>
@@ -398,7 +437,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -468,7 +507,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -328,6 +328,18 @@
   </si>
   <si>
     <t>OFV11147</t>
+  </si>
+  <si>
+    <t>YGK09693</t>
+  </si>
+  <si>
+    <t>LUC68687</t>
+  </si>
+  <si>
+    <t>ERW46162</t>
+  </si>
+  <si>
+    <t>XFU08072</t>
   </si>
 </sst>
 </file>
@@ -437,7 +449,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -507,7 +519,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>XFU08072</t>
+  </si>
+  <si>
+    <t>LWM69121</t>
+  </si>
+  <si>
+    <t>FMU29983</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -519,7 +525,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>FMU29983</t>
+  </si>
+  <si>
+    <t>XCA89054</t>
+  </si>
+  <si>
+    <t>HRB40373</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -525,7 +531,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>HRB40373</t>
+  </si>
+  <si>
+    <t>ZIJ19251</t>
+  </si>
+  <si>
+    <t>PNH33235</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -531,7 +537,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>PNH33235</t>
+  </si>
+  <si>
+    <t>AZI71925</t>
+  </si>
+  <si>
+    <t>XSQ45138</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -537,7 +543,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>XSQ45138</t>
+  </si>
+  <si>
+    <t>LEX92004</t>
+  </si>
+  <si>
+    <t>AAX89777</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -543,7 +549,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>AAX89777</t>
+  </si>
+  <si>
+    <t>JKX15591</t>
+  </si>
+  <si>
+    <t>VHY09597</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -549,7 +555,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>VHY09597</t>
+  </si>
+  <si>
+    <t>ADU92938</t>
+  </si>
+  <si>
+    <t>VZS69537</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -555,7 +561,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>VZS69537</t>
+  </si>
+  <si>
+    <t>COJ38194</t>
+  </si>
+  <si>
+    <t>UCX83450</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -561,7 +567,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -388,6 +388,36 @@
   </si>
   <si>
     <t>UCX83450</t>
+  </si>
+  <si>
+    <t>VIU11964</t>
+  </si>
+  <si>
+    <t>ZBD82157</t>
+  </si>
+  <si>
+    <t>SAF89190</t>
+  </si>
+  <si>
+    <t>GJZ10160</t>
+  </si>
+  <si>
+    <t>WKY11938</t>
+  </si>
+  <si>
+    <t>XLZ25470</t>
+  </si>
+  <si>
+    <t>ETZ58928</t>
+  </si>
+  <si>
+    <t>WKE27667</t>
+  </si>
+  <si>
+    <t>QBO86413</t>
+  </si>
+  <si>
+    <t>ZTZ52410</t>
   </si>
 </sst>
 </file>
@@ -497,7 +527,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -567,7 +597,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>ZTZ52410</t>
+  </si>
+  <si>
+    <t>XUV55916</t>
+  </si>
+  <si>
+    <t>HMV27086</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -597,7 +603,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>HMV27086</t>
+  </si>
+  <si>
+    <t>GTS55907</t>
+  </si>
+  <si>
+    <t>FTE56580</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -603,7 +609,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>FTE56580</t>
+  </si>
+  <si>
+    <t>UAZ80278</t>
+  </si>
+  <si>
+    <t>YGC00936</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -609,7 +615,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>YGC00936</t>
+  </si>
+  <si>
+    <t>SCI94672</t>
+  </si>
+  <si>
+    <t>LOU36703</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -615,7 +621,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -442,6 +442,21 @@
   </si>
   <si>
     <t>LOU36703</t>
+  </si>
+  <si>
+    <t>AXE67727</t>
+  </si>
+  <si>
+    <t>WGJ05673</t>
+  </si>
+  <si>
+    <t>YBZ85635</t>
+  </si>
+  <si>
+    <t>AVZ62858</t>
+  </si>
+  <si>
+    <t>PVC63085</t>
   </si>
 </sst>
 </file>
@@ -551,7 +566,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -621,7 +636,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>PVC63085</t>
+  </si>
+  <si>
+    <t>JGO04006</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -460,6 +460,54 @@
   </si>
   <si>
     <t>JGO04006</t>
+  </si>
+  <si>
+    <t>JWO64184</t>
+  </si>
+  <si>
+    <t>BBY83031</t>
+  </si>
+  <si>
+    <t>RZP75222</t>
+  </si>
+  <si>
+    <t>KPR35738</t>
+  </si>
+  <si>
+    <t>GRY46566</t>
+  </si>
+  <si>
+    <t>WBB85876</t>
+  </si>
+  <si>
+    <t>NOJ39172</t>
+  </si>
+  <si>
+    <t>OJX15697</t>
+  </si>
+  <si>
+    <t>QHD02977</t>
+  </si>
+  <si>
+    <t>ZOY39884</t>
+  </si>
+  <si>
+    <t>BMI23070</t>
+  </si>
+  <si>
+    <t>DPQ35492</t>
+  </si>
+  <si>
+    <t>THT03416</t>
+  </si>
+  <si>
+    <t>VXJ67664</t>
+  </si>
+  <si>
+    <t>ZHE09143</t>
+  </si>
+  <si>
+    <t>XOR36155</t>
   </si>
 </sst>
 </file>
@@ -569,7 +617,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -639,7 +687,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -508,6 +508,24 @@
   </si>
   <si>
     <t>XOR36155</t>
+  </si>
+  <si>
+    <t>YCU88951</t>
+  </si>
+  <si>
+    <t>PVN63369</t>
+  </si>
+  <si>
+    <t>ZFO08189</t>
+  </si>
+  <si>
+    <t>QTJ50511</t>
+  </si>
+  <si>
+    <t>WZL70012</t>
+  </si>
+  <si>
+    <t>YOE47145</t>
   </si>
 </sst>
 </file>
@@ -617,7 +635,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -687,7 +705,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve">HEJ93780</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>YOE47145</t>
+  </si>
+  <si>
+    <t>ROC39637</t>
+  </si>
+  <si>
+    <t>HQT42109</t>
   </si>
 </sst>
 </file>
@@ -635,7 +641,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>111</v>
@@ -705,7 +711,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>57</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="164">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -510,6 +510,21 @@
   </si>
   <si>
     <t xml:space="preserve">GLK28990</t>
+  </si>
+  <si>
+    <t>ZQL45208</t>
+  </si>
+  <si>
+    <t>ENZ32778</t>
+  </si>
+  <si>
+    <t>WDY99591</t>
+  </si>
+  <si>
+    <t>HYT70716</t>
+  </si>
+  <si>
+    <t>KYN78042</t>
   </si>
 </sst>
 </file>
@@ -772,12 +787,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,10 +956,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,10 +1100,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,16 +1438,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1785,16 +1800,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2164,7 +2179,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2191,10 +2206,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,10 +2356,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,13 +2506,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,13 +2679,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,10 +2852,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2987,10 +3002,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="16.53" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,12 +3515,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="BrokerPCHQuoteNo" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="BrokerBCHQuoteNo" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="HPNRBCHQuoteNoEdit" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="OP-OP-Orders" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="164">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -455,6 +456,9 @@
     <t xml:space="preserve">Final balloon payment </t>
   </si>
   <si>
+    <t xml:space="preserve">KYN78042</t>
+  </si>
+  <si>
     <t xml:space="preserve">MWN65034</t>
   </si>
   <si>
@@ -500,6 +504,9 @@
     <t xml:space="preserve">Commission</t>
   </si>
   <si>
+    <t xml:space="preserve">WDY99591</t>
+  </si>
+  <si>
     <t xml:space="preserve">QIU12864</t>
   </si>
   <si>
@@ -509,22 +516,16 @@
     <t xml:space="preserve">VAR8255</t>
   </si>
   <si>
-    <t xml:space="preserve">GLK28990</t>
-  </si>
-  <si>
-    <t>ZQL45208</t>
-  </si>
-  <si>
-    <t>ENZ32778</t>
-  </si>
-  <si>
-    <t>WDY99591</t>
-  </si>
-  <si>
-    <t>HYT70716</t>
-  </si>
-  <si>
-    <t>KYN78042</t>
+    <t xml:space="preserve">HYT70716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WVW60858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP-36254</t>
   </si>
 </sst>
 </file>
@@ -536,7 +537,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -575,6 +576,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -629,7 +637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -700,6 +708,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -785,14 +797,14 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,12 +966,12 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,12 +1110,12 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,18 +1448,18 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1471,16 +1483,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1536,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,13 +1585,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1619,10 +1631,10 @@
         <v>93</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,13 +1647,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>85</v>
@@ -1657,13 +1669,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -1701,13 +1713,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>115</v>
@@ -1798,18 +1810,18 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1833,16 +1845,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1898,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,13 +1948,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1982,10 +1994,10 @@
         <v>93</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,13 +2010,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>85</v>
@@ -2020,13 +2032,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2064,13 +2076,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>115</v>
@@ -2166,11 +2178,11 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2179,7 +2191,47 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>162</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2204,12 +2256,12 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,12 +2406,12 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,15 +2556,15 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
-    <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,15 +2729,15 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
-    <col min="7" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,12 +2902,12 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,12 +3052,12 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="16.53" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,7 +3415,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3513,14 +3565,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="6" max="10" customWidth="true" hidden="false" style="0" width="13.06" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -22,7 +22,7 @@
     <sheet name="BrokerPCHQuoteNo" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="BrokerBCHQuoteNo" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="HPNRBCHQuoteNoEdit" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="OP-OP-Orders" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Order_ID" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="170">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -399,16 +399,16 @@
     <t xml:space="preserve">1586.42</t>
   </si>
   <si>
-    <t xml:space="preserve">VAF87109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON-9484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIO1536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1451.38</t>
+    <t xml:space="preserve">VHP00652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM-2551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGU0630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1437.14</t>
   </si>
   <si>
     <t xml:space="preserve">NPY47753</t>
@@ -504,16 +504,22 @@
     <t xml:space="preserve">Commission</t>
   </si>
   <si>
-    <t xml:space="preserve">WDY99591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QIU12864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP-3405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAR8255</t>
+    <t xml:space="preserve">Quote No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRL41305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OA-8217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGE0644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58535.00</t>
   </si>
   <si>
     <t xml:space="preserve">HYT70716</t>
@@ -522,10 +528,22 @@
     <t xml:space="preserve">Order ID</t>
   </si>
   <si>
-    <t xml:space="preserve">WVW60858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP-36254</t>
+    <t xml:space="preserve">SDT93293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OG-01054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opportunity ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT-5759</t>
+  </si>
+  <si>
+    <t>VEN96821</t>
+  </si>
+  <si>
+    <t>NO-34137</t>
   </si>
 </sst>
 </file>
@@ -797,14 +815,13 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,12 +983,12 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,12 +1127,12 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,13 +1465,13 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,13 +1827,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="68.66"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.52" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="68.66" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,13 +1907,13 @@
         <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,7 +2199,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2191,7 +2208,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2210,28 +2227,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2256,12 +2283,12 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,12 +2433,12 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,15 +2583,14 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,15 +2755,14 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,12 +2927,12 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="10.84" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,12 +3077,12 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="16.53" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,7 +3440,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3562,17 +3587,16 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.3"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="30.75" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="21.82" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="21.3" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="183">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -528,22 +528,61 @@
     <t xml:space="preserve">Order ID</t>
   </si>
   <si>
-    <t xml:space="preserve">SDT93293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OG-01054</t>
+    <t xml:space="preserve">OIK19300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM-26771</t>
   </si>
   <si>
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
-    <t xml:space="preserve">FT-5759</t>
-  </si>
-  <si>
-    <t>VEN96821</t>
-  </si>
-  <si>
-    <t>NO-34137</t>
+    <t xml:space="preserve">UR-4972</t>
+  </si>
+  <si>
+    <t>QGN06186</t>
+  </si>
+  <si>
+    <t>YU-54630</t>
+  </si>
+  <si>
+    <t>YHM09927</t>
+  </si>
+  <si>
+    <t>QZ-75974</t>
+  </si>
+  <si>
+    <t>BPW78580</t>
+  </si>
+  <si>
+    <t>PS-43318</t>
+  </si>
+  <si>
+    <t>IEB95157</t>
+  </si>
+  <si>
+    <t>BJ-16091</t>
+  </si>
+  <si>
+    <t>DMW25025</t>
+  </si>
+  <si>
+    <t>ZX-69778</t>
+  </si>
+  <si>
+    <t>YAH85912</t>
+  </si>
+  <si>
+    <t>VR-40387</t>
+  </si>
+  <si>
+    <t>OX-62640</t>
+  </si>
+  <si>
+    <t>HO-3917</t>
+  </si>
+  <si>
+    <t>WB-8944</t>
   </si>
 </sst>
 </file>
@@ -815,7 +854,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -983,7 +1022,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1127,7 +1166,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1465,7 +1504,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1827,7 +1866,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2199,7 +2238,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2233,7 +2272,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2245,10 +2284,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,7 +2297,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2322,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2433,7 +2472,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2583,7 +2622,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2755,7 +2794,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2927,7 +2966,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3077,7 +3116,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3440,7 +3479,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3590,7 +3629,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="195">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -583,6 +583,42 @@
   </si>
   <si>
     <t>WB-8944</t>
+  </si>
+  <si>
+    <t>UI-1072</t>
+  </si>
+  <si>
+    <t>EB-8112</t>
+  </si>
+  <si>
+    <t>RPC36299</t>
+  </si>
+  <si>
+    <t>LL-21202</t>
+  </si>
+  <si>
+    <t>OFA00067</t>
+  </si>
+  <si>
+    <t>HI-12345</t>
+  </si>
+  <si>
+    <t>YBZ83836</t>
+  </si>
+  <si>
+    <t>SJ-18744</t>
+  </si>
+  <si>
+    <t>YOM31747</t>
+  </si>
+  <si>
+    <t>AZ-11250</t>
+  </si>
+  <si>
+    <t>EPT33349</t>
+  </si>
+  <si>
+    <t>YV-65434</t>
   </si>
 </sst>
 </file>
@@ -2284,10 +2320,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,7 +2333,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="191">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -411,7 +411,7 @@
     <t xml:space="preserve">1437.14</t>
   </si>
   <si>
-    <t xml:space="preserve">NPY47753</t>
+    <t xml:space="preserve">WND37066</t>
   </si>
   <si>
     <t xml:space="preserve">XH-0462</t>
@@ -420,7 +420,7 @@
     <t xml:space="preserve">QIA1290</t>
   </si>
   <si>
-    <t xml:space="preserve">1827.75</t>
+    <t xml:space="preserve">2124.03</t>
   </si>
   <si>
     <t xml:space="preserve">VOD38793</t>
@@ -528,97 +528,85 @@
     <t xml:space="preserve">Order ID</t>
   </si>
   <si>
-    <t xml:space="preserve">OIK19300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM-26771</t>
+    <t xml:space="preserve">Sheet Namw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPT33349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK-14472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HirePurchaseNonRegulated</t>
   </si>
   <si>
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
-    <t xml:space="preserve">UR-4972</t>
-  </si>
-  <si>
-    <t>QGN06186</t>
-  </si>
-  <si>
-    <t>YU-54630</t>
-  </si>
-  <si>
-    <t>YHM09927</t>
-  </si>
-  <si>
-    <t>QZ-75974</t>
-  </si>
-  <si>
-    <t>BPW78580</t>
-  </si>
-  <si>
-    <t>PS-43318</t>
-  </si>
-  <si>
-    <t>IEB95157</t>
-  </si>
-  <si>
-    <t>BJ-16091</t>
-  </si>
-  <si>
-    <t>DMW25025</t>
-  </si>
-  <si>
-    <t>ZX-69778</t>
-  </si>
-  <si>
-    <t>YAH85912</t>
-  </si>
-  <si>
-    <t>VR-40387</t>
-  </si>
-  <si>
-    <t>OX-62640</t>
-  </si>
-  <si>
-    <t>HO-3917</t>
-  </si>
-  <si>
-    <t>WB-8944</t>
-  </si>
-  <si>
-    <t>UI-1072</t>
-  </si>
-  <si>
-    <t>EB-8112</t>
-  </si>
-  <si>
-    <t>RPC36299</t>
-  </si>
-  <si>
-    <t>LL-21202</t>
-  </si>
-  <si>
-    <t>OFA00067</t>
-  </si>
-  <si>
-    <t>HI-12345</t>
-  </si>
-  <si>
-    <t>YBZ83836</t>
-  </si>
-  <si>
-    <t>SJ-18744</t>
-  </si>
-  <si>
-    <t>YOM31747</t>
-  </si>
-  <si>
-    <t>AZ-11250</t>
-  </si>
-  <si>
-    <t>EPT33349</t>
-  </si>
-  <si>
-    <t>YV-65434</t>
+    <t xml:space="preserve">EB-8112</t>
+  </si>
+  <si>
+    <t>SND35276</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2124.03</t>
+  </si>
+  <si>
+    <t>4689.17</t>
+  </si>
+  <si>
+    <t>CC-90894</t>
+  </si>
+  <si>
+    <t>HirePurchaseNonRegulated</t>
+  </si>
+  <si>
+    <t>BZR73941</t>
+  </si>
+  <si>
+    <t>1856.95</t>
+  </si>
+  <si>
+    <t>TE-96121</t>
+  </si>
+  <si>
+    <t>KCL82225</t>
+  </si>
+  <si>
+    <t>LC-89273</t>
+  </si>
+  <si>
+    <t>BAT77582</t>
+  </si>
+  <si>
+    <t>1376.97</t>
+  </si>
+  <si>
+    <t>CU-51607</t>
+  </si>
+  <si>
+    <t>RBU88345</t>
+  </si>
+  <si>
+    <t>IL-23287</t>
+  </si>
+  <si>
+    <t>QGL02280</t>
+  </si>
+  <si>
+    <t>UZ-79611</t>
   </si>
 </sst>
 </file>
@@ -630,7 +618,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -678,6 +666,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -730,7 +725,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,6 +800,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -890,7 +889,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1058,7 +1057,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1086,7 +1085,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -1099,7 +1098,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1151,7 +1150,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,13 +1166,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1201,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1540,7 +1539,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1902,7 +1901,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2274,7 +2273,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2302,13 +2301,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2317,23 +2316,29 @@
       <c r="B1" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2358,7 +2363,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2508,7 +2513,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2658,7 +2663,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2830,7 +2835,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3002,7 +3007,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3152,7 +3157,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3515,7 +3520,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3665,7 +3670,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="209">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -607,6 +607,60 @@
   </si>
   <si>
     <t>UZ-79611</t>
+  </si>
+  <si>
+    <t>YC-8638</t>
+  </si>
+  <si>
+    <t>UV-6446</t>
+  </si>
+  <si>
+    <t>LL-2683</t>
+  </si>
+  <si>
+    <t>WN-2562</t>
+  </si>
+  <si>
+    <t>OA-74440</t>
+  </si>
+  <si>
+    <t>BCH (Formula 3) - BCH</t>
+  </si>
+  <si>
+    <t>UU-52413</t>
+  </si>
+  <si>
+    <t>HPNR (Formula 3) - BCH</t>
+  </si>
+  <si>
+    <t>VC-8945</t>
+  </si>
+  <si>
+    <t>CV-6960</t>
+  </si>
+  <si>
+    <t>UU-54189</t>
+  </si>
+  <si>
+    <t>CP (Formula 3) - BCH</t>
+  </si>
+  <si>
+    <t>IW-6791</t>
+  </si>
+  <si>
+    <t>XP-3929</t>
+  </si>
+  <si>
+    <t>GN-3159</t>
+  </si>
+  <si>
+    <t>QD-9140</t>
+  </si>
+  <si>
+    <t>QF-9431</t>
+  </si>
+  <si>
+    <t>VM-2143</t>
   </si>
 </sst>
 </file>
@@ -2325,10 +2379,10 @@
         <v>165</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,7 +2392,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="185">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -411,7 +411,7 @@
     <t xml:space="preserve">1437.14</t>
   </si>
   <si>
-    <t xml:space="preserve">WND37066</t>
+    <t xml:space="preserve">QGL02280</t>
   </si>
   <si>
     <t xml:space="preserve">XH-0462</t>
@@ -420,7 +420,10 @@
     <t xml:space="preserve">QIA1290</t>
   </si>
   <si>
-    <t xml:space="preserve">2124.03</t>
+    <t xml:space="preserve">4689.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1856.95</t>
   </si>
   <si>
     <t xml:space="preserve">VOD38793</t>
@@ -528,139 +531,64 @@
     <t xml:space="preserve">Order ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Sheet Namw</t>
+    <t xml:space="preserve">Sheet Name</t>
   </si>
   <si>
     <t xml:space="preserve">EPT33349</t>
   </si>
   <si>
-    <t xml:space="preserve">OK-14472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HirePurchaseNonRegulated</t>
+    <t xml:space="preserve">VU-53221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP (Formula 3) - BCH</t>
   </si>
   <si>
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
-    <t xml:space="preserve">EB-8112</t>
-  </si>
-  <si>
-    <t>SND35276</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
-  </si>
-  <si>
-    <t>Hire Purchase Non-Regulated</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>2124.03</t>
-  </si>
-  <si>
-    <t>4689.17</t>
-  </si>
-  <si>
-    <t>CC-90894</t>
-  </si>
-  <si>
-    <t>HirePurchaseNonRegulated</t>
-  </si>
-  <si>
-    <t>BZR73941</t>
-  </si>
-  <si>
-    <t>1856.95</t>
-  </si>
-  <si>
-    <t>TE-96121</t>
-  </si>
-  <si>
-    <t>KCL82225</t>
-  </si>
-  <si>
-    <t>LC-89273</t>
-  </si>
-  <si>
-    <t>BAT77582</t>
-  </si>
-  <si>
-    <t>1376.97</t>
-  </si>
-  <si>
-    <t>CU-51607</t>
-  </si>
-  <si>
-    <t>RBU88345</t>
-  </si>
-  <si>
-    <t>IL-23287</t>
-  </si>
-  <si>
-    <t>QGL02280</t>
-  </si>
-  <si>
-    <t>UZ-79611</t>
-  </si>
-  <si>
-    <t>YC-8638</t>
-  </si>
-  <si>
-    <t>UV-6446</t>
-  </si>
-  <si>
-    <t>LL-2683</t>
-  </si>
-  <si>
-    <t>WN-2562</t>
-  </si>
-  <si>
-    <t>OA-74440</t>
-  </si>
-  <si>
-    <t>BCH (Formula 3) - BCH</t>
-  </si>
-  <si>
-    <t>UU-52413</t>
-  </si>
-  <si>
-    <t>HPNR (Formula 3) - BCH</t>
-  </si>
-  <si>
-    <t>VC-8945</t>
-  </si>
-  <si>
-    <t>CV-6960</t>
-  </si>
-  <si>
-    <t>UU-54189</t>
-  </si>
-  <si>
-    <t>CP (Formula 3) - BCH</t>
-  </si>
-  <si>
-    <t>IW-6791</t>
-  </si>
-  <si>
-    <t>XP-3929</t>
-  </si>
-  <si>
-    <t>GN-3159</t>
-  </si>
-  <si>
-    <t>QD-9140</t>
-  </si>
-  <si>
-    <t>QF-9431</t>
-  </si>
-  <si>
-    <t>VM-2143</t>
+    <t xml:space="preserve">VM-2143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding Cost without Maint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding Cost with Maint</t>
+  </si>
+  <si>
+    <t>900.75</t>
+  </si>
+  <si>
+    <t>929.36</t>
+  </si>
+  <si>
+    <t>YA-84361</t>
+  </si>
+  <si>
+    <t>FL (Formula 3) - BCH</t>
+  </si>
+  <si>
+    <t>SF-0750</t>
+  </si>
+  <si>
+    <t>WA-7183</t>
+  </si>
+  <si>
+    <t>EH-0689</t>
+  </si>
+  <si>
+    <t>KY-7067</t>
+  </si>
+  <si>
+    <t>OW-6832</t>
+  </si>
+  <si>
+    <t>WH-0006</t>
+  </si>
+  <si>
+    <t>FL-2999</t>
+  </si>
+  <si>
+    <t>OD-95584</t>
   </si>
 </sst>
 </file>
@@ -943,7 +871,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1111,7 +1039,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1139,7 +1067,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -1152,7 +1080,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1204,7 +1132,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,13 +1148,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1183,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1289,16 +1217,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1416,7 +1344,7 @@
         <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>94</v>
@@ -1463,10 +1391,10 @@
         <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,16 +1405,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,7 +1433,7 @@
         <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>104</v>
@@ -1593,7 +1521,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1604,7 +1532,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1628,16 +1556,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1693,7 +1621,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,13 +1658,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1776,10 +1704,10 @@
         <v>93</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,13 +1720,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>85</v>
@@ -1814,13 +1742,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -1858,13 +1786,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>115</v>
@@ -1955,7 +1883,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1966,7 +1894,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1990,16 +1918,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -2035,13 +1963,13 @@
         <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,13 +2021,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2139,10 +2067,10 @@
         <v>93</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,13 +2083,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>85</v>
@@ -2177,13 +2105,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2221,13 +2149,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>115</v>
@@ -2327,7 +2255,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2336,7 +2264,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2355,44 +2283,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.87" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.23" collapsed="false" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>208</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2365,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2567,7 +2515,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2717,7 +2665,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2889,7 +2837,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3061,7 +3009,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3211,7 +3159,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3574,7 +3522,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3724,7 +3672,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="184">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -411,7 +411,7 @@
     <t xml:space="preserve">1437.14</t>
   </si>
   <si>
-    <t xml:space="preserve">QGL02280</t>
+    <t xml:space="preserve">CWD67153</t>
   </si>
   <si>
     <t xml:space="preserve">XH-0462</t>
@@ -420,10 +420,7 @@
     <t xml:space="preserve">QIA1290</t>
   </si>
   <si>
-    <t xml:space="preserve">4689.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856.95</t>
+    <t xml:space="preserve">1828.16</t>
   </si>
   <si>
     <t xml:space="preserve">VOD38793</t>
@@ -537,16 +534,16 @@
     <t xml:space="preserve">EPT33349</t>
   </si>
   <si>
-    <t xml:space="preserve">VU-53221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP (Formula 3) - BCH</t>
+    <t xml:space="preserve">HO-38886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HirePurchaseNonRegulated</t>
   </si>
   <si>
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
-    <t xml:space="preserve">VM-2143</t>
+    <t xml:space="preserve">FL-2999</t>
   </si>
   <si>
     <t xml:space="preserve">Holding Cost without Maint</t>
@@ -555,40 +552,40 @@
     <t xml:space="preserve">Holding Cost with Maint</t>
   </si>
   <si>
-    <t>900.75</t>
-  </si>
-  <si>
-    <t>929.36</t>
-  </si>
-  <si>
-    <t>YA-84361</t>
-  </si>
-  <si>
-    <t>FL (Formula 3) - BCH</t>
-  </si>
-  <si>
-    <t>SF-0750</t>
-  </si>
-  <si>
-    <t>WA-7183</t>
-  </si>
-  <si>
-    <t>EH-0689</t>
-  </si>
-  <si>
-    <t>KY-7067</t>
-  </si>
-  <si>
-    <t>OW-6832</t>
-  </si>
-  <si>
-    <t>WH-0006</t>
-  </si>
-  <si>
-    <t>FL-2999</t>
-  </si>
-  <si>
-    <t>OD-95584</t>
+    <t xml:space="preserve">900.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">929.36</t>
+  </si>
+  <si>
+    <t>FYZ75373</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1828.16</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>XX-61024</t>
+  </si>
+  <si>
+    <t>HirePurchaseNonRegulated</t>
+  </si>
+  <si>
+    <t>DQ-4457</t>
   </si>
 </sst>
 </file>
@@ -871,7 +868,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1039,7 +1036,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1067,7 +1064,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -1080,7 +1077,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1132,7 +1129,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,13 +1145,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1180,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1217,16 +1214,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1344,7 +1341,7 @@
         <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>94</v>
@@ -1391,10 +1388,10 @@
         <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,16 +1402,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,7 +1430,7 @@
         <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>104</v>
@@ -1521,7 +1518,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1532,7 +1529,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1556,16 +1553,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1621,7 +1618,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,13 +1655,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1704,10 +1701,10 @@
         <v>93</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,13 +1717,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>85</v>
@@ -1742,13 +1739,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -1786,13 +1783,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>115</v>
@@ -1883,7 +1880,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1894,7 +1891,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1918,16 +1915,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1963,13 +1960,13 @@
         <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,7 +1980,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,13 +2018,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2067,10 +2064,10 @@
         <v>93</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,13 +2080,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>85</v>
@@ -2105,13 +2102,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2149,13 +2146,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>115</v>
@@ -2255,7 +2252,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2264,7 +2261,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2286,12 +2283,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.87" collapsed="false" outlineLevel="0"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.88" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.23" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -2300,26 +2297,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,18 +2326,18 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2362,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2515,7 +2512,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2665,7 +2662,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2837,7 +2834,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3009,7 +3006,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3159,7 +3156,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3522,7 +3519,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3672,7 +3669,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="190">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -586,6 +586,24 @@
   </si>
   <si>
     <t>DQ-4457</t>
+  </si>
+  <si>
+    <t>WKB12752</t>
+  </si>
+  <si>
+    <t>QI-19736</t>
+  </si>
+  <si>
+    <t>KEI94930</t>
+  </si>
+  <si>
+    <t>QE-42111</t>
+  </si>
+  <si>
+    <t>PQP43203</t>
+  </si>
+  <si>
+    <t>QP-40357</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1082,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -2308,7 +2326,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>182</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="206">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -604,6 +604,54 @@
   </si>
   <si>
     <t>QP-40357</t>
+  </si>
+  <si>
+    <t>900.75</t>
+  </si>
+  <si>
+    <t>929.36</t>
+  </si>
+  <si>
+    <t>NW-68019</t>
+  </si>
+  <si>
+    <t>BCH (Formula 3) - BCH</t>
+  </si>
+  <si>
+    <t>PN-33412</t>
+  </si>
+  <si>
+    <t>FL (Formula 3) - PCH</t>
+  </si>
+  <si>
+    <t>MY-77124</t>
+  </si>
+  <si>
+    <t>XU-50801</t>
+  </si>
+  <si>
+    <t>AB-8602</t>
+  </si>
+  <si>
+    <t>FH-0974</t>
+  </si>
+  <si>
+    <t>XW-6530</t>
+  </si>
+  <si>
+    <t>LX-6820</t>
+  </si>
+  <si>
+    <t>WH-0659</t>
+  </si>
+  <si>
+    <t>GJ-1641</t>
+  </si>
+  <si>
+    <t>LPV39712</t>
+  </si>
+  <si>
+    <t>EI-10858</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1130,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -2326,7 +2374,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>182</v>
@@ -2339,7 +2387,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,10 +2400,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="201">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -411,7 +411,7 @@
     <t xml:space="preserve">1437.14</t>
   </si>
   <si>
-    <t xml:space="preserve">CWD67153</t>
+    <t xml:space="preserve">FPH34746</t>
   </si>
   <si>
     <t xml:space="preserve">XH-0462</t>
@@ -531,19 +531,19 @@
     <t xml:space="preserve">Sheet Name</t>
   </si>
   <si>
-    <t xml:space="preserve">EPT33349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HO-38886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HirePurchaseNonRegulated</t>
+    <t xml:space="preserve">JZO71325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA-87875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPNR_used_car</t>
   </si>
   <si>
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
-    <t xml:space="preserve">FL-2999</t>
+    <t xml:space="preserve">OC-8253</t>
   </si>
   <si>
     <t xml:space="preserve">Holding Cost without Maint</t>
@@ -558,100 +558,85 @@
     <t xml:space="preserve">929.36</t>
   </si>
   <si>
-    <t>FYZ75373</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
-  </si>
-  <si>
-    <t>Hire Purchase Non-Regulated</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1828.16</t>
-  </si>
-  <si>
-    <t>1030.00</t>
-  </si>
-  <si>
-    <t>XX-61024</t>
-  </si>
-  <si>
-    <t>HirePurchaseNonRegulated</t>
-  </si>
-  <si>
-    <t>DQ-4457</t>
-  </si>
-  <si>
-    <t>WKB12752</t>
-  </si>
-  <si>
-    <t>QI-19736</t>
-  </si>
-  <si>
-    <t>KEI94930</t>
-  </si>
-  <si>
-    <t>QE-42111</t>
-  </si>
-  <si>
-    <t>PQP43203</t>
-  </si>
-  <si>
-    <t>QP-40357</t>
-  </si>
-  <si>
-    <t>900.75</t>
-  </si>
-  <si>
-    <t>929.36</t>
-  </si>
-  <si>
-    <t>NW-68019</t>
-  </si>
-  <si>
-    <t>BCH (Formula 3) - BCH</t>
-  </si>
-  <si>
-    <t>PN-33412</t>
-  </si>
-  <si>
-    <t>FL (Formula 3) - PCH</t>
-  </si>
-  <si>
-    <t>MY-77124</t>
-  </si>
-  <si>
-    <t>XU-50801</t>
-  </si>
-  <si>
-    <t>AB-8602</t>
-  </si>
-  <si>
-    <t>FH-0974</t>
-  </si>
-  <si>
-    <t>XW-6530</t>
-  </si>
-  <si>
-    <t>LX-6820</t>
-  </si>
-  <si>
-    <t>WH-0659</t>
-  </si>
-  <si>
-    <t>GJ-1641</t>
-  </si>
-  <si>
-    <t>LPV39712</t>
-  </si>
-  <si>
-    <t>EI-10858</t>
+    <t>HFT96245</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>Popular Fiat</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>Monthly in advance</t>
+  </si>
+  <si>
+    <t>5417</t>
+  </si>
+  <si>
+    <t>2.00 p</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>46237.50</t>
+  </si>
+  <si>
+    <t>9247.50</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>56135.00</t>
+  </si>
+  <si>
+    <t>OZS71179</t>
+  </si>
+  <si>
+    <t>HU-5882</t>
+  </si>
+  <si>
+    <t>YA-7289</t>
+  </si>
+  <si>
+    <t>SD-9257</t>
+  </si>
+  <si>
+    <t>LMK2004</t>
+  </si>
+  <si>
+    <t>FX-64345</t>
+  </si>
+  <si>
+    <t>PFT90148</t>
+  </si>
+  <si>
+    <t>BF-9615</t>
+  </si>
+  <si>
+    <t>VCM9113</t>
+  </si>
+  <si>
+    <t>BP-34573</t>
   </si>
 </sst>
 </file>
@@ -709,8 +694,9 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -934,7 +920,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1102,7 +1088,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1130,7 +1116,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -1143,7 +1129,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,13 +1160,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1195,7 +1181,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,13 +1197,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1232,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1584,7 +1570,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1946,7 +1932,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1981,32 +1967,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,13 +2012,13 @@
         <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,13 +2026,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,13 +2049,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2105,13 +2091,13 @@
         <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2127,13 +2113,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,13 +2135,13 @@
         <v>149</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,7 +2179,7 @@
         <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>110</v>
@@ -2221,7 +2207,7 @@
         <v>155</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,7 +2304,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2352,7 +2338,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.88" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.23" collapsed="false" outlineLevel="0"/>
@@ -2374,10 +2360,10 @@
         <v>165</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,7 +2373,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,10 +2386,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2414,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2578,7 +2564,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2728,7 +2714,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2900,7 +2886,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3072,7 +3058,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3222,7 +3208,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3585,7 +3571,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3735,7 +3721,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="184">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -411,7 +411,7 @@
     <t xml:space="preserve">1437.14</t>
   </si>
   <si>
-    <t xml:space="preserve">FPH34746</t>
+    <t xml:space="preserve">OMC27839</t>
   </si>
   <si>
     <t xml:space="preserve">XH-0462</t>
@@ -420,7 +420,10 @@
     <t xml:space="preserve">QIA1290</t>
   </si>
   <si>
-    <t xml:space="preserve">1828.16</t>
+    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1612.08</t>
   </si>
   <si>
     <t xml:space="preserve">VOD38793</t>
@@ -507,19 +510,25 @@
     <t xml:space="preserve">Quote No.</t>
   </si>
   <si>
-    <t xml:space="preserve">DRL41305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OA-8217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGE0644</t>
+    <t xml:space="preserve">PFT90148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF-9615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCM9113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46237.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9247.50</t>
   </si>
   <si>
     <t xml:space="preserve">650.00</t>
   </si>
   <si>
-    <t xml:space="preserve">58535.00</t>
+    <t xml:space="preserve">56135.00</t>
   </si>
   <si>
     <t xml:space="preserve">HYT70716</t>
@@ -534,16 +543,16 @@
     <t xml:space="preserve">JZO71325</t>
   </si>
   <si>
-    <t xml:space="preserve">ZA-87875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPNR_used_car</t>
+    <t xml:space="preserve">IW-65834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPNR (Formula 3) - BCH</t>
   </si>
   <si>
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
-    <t xml:space="preserve">OC-8253</t>
+    <t xml:space="preserve">CZ-7953</t>
   </si>
   <si>
     <t xml:space="preserve">Holding Cost without Maint</t>
@@ -558,85 +567,25 @@
     <t xml:space="preserve">929.36</t>
   </si>
   <si>
-    <t>HFT96245</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
-  </si>
-  <si>
-    <t>Business Contract Hire</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2000.00</t>
-  </si>
-  <si>
-    <t>Popular Fiat</t>
-  </si>
-  <si>
-    <t>REF001</t>
-  </si>
-  <si>
-    <t>04/12/2023</t>
-  </si>
-  <si>
-    <t>Monthly in advance</t>
-  </si>
-  <si>
-    <t>5417</t>
-  </si>
-  <si>
-    <t>2.00 p</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>46237.50</t>
-  </si>
-  <si>
-    <t>9247.50</t>
-  </si>
-  <si>
-    <t>650.00</t>
-  </si>
-  <si>
-    <t>56135.00</t>
-  </si>
-  <si>
-    <t>OZS71179</t>
-  </si>
-  <si>
-    <t>HU-5882</t>
-  </si>
-  <si>
-    <t>YA-7289</t>
-  </si>
-  <si>
-    <t>SD-9257</t>
-  </si>
-  <si>
-    <t>LMK2004</t>
-  </si>
-  <si>
-    <t>FX-64345</t>
-  </si>
-  <si>
-    <t>PFT90148</t>
-  </si>
-  <si>
-    <t>BF-9615</t>
-  </si>
-  <si>
-    <t>VCM9113</t>
-  </si>
-  <si>
-    <t>BP-34573</t>
+    <t>RG-0124</t>
+  </si>
+  <si>
+    <t>KR-4434</t>
+  </si>
+  <si>
+    <t>HT-5154</t>
+  </si>
+  <si>
+    <t>PP-3242</t>
+  </si>
+  <si>
+    <t>HR-8442</t>
+  </si>
+  <si>
+    <t>MF-0141</t>
+  </si>
+  <si>
+    <t>QP-3607</t>
   </si>
 </sst>
 </file>
@@ -920,7 +869,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1088,7 +1037,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1129,7 +1078,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,7 +1152,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1181,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1266,16 +1215,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1393,7 +1342,7 @@
         <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>94</v>
@@ -1440,10 +1389,10 @@
         <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,16 +1403,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,7 +1431,7 @@
         <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>104</v>
@@ -1570,7 +1519,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1581,7 +1530,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1605,16 +1554,16 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
@@ -1670,7 +1619,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,13 +1656,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1753,10 +1702,10 @@
         <v>93</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,13 +1718,13 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>85</v>
@@ -1791,13 +1740,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -1835,13 +1784,13 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>115</v>
@@ -1932,7 +1881,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1943,7 +1892,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1967,32 +1916,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,13 +1961,13 @@
         <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,13 +1975,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,13 +1998,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2070,13 +2019,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2091,13 +2040,13 @@
         <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,13 +2062,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,16 +2081,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,13 +2103,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2179,7 +2128,7 @@
         <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>110</v>
@@ -2198,16 +2147,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2253,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2313,7 +2262,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +2287,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.88" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.23" collapsed="false" outlineLevel="0"/>
@@ -2349,47 +2298,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2414,7 +2363,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2564,7 +2513,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2714,7 +2663,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2886,7 +2835,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3058,7 +3007,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3208,7 +3157,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3571,7 +3520,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3721,7 +3670,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,7 @@
     <sheet name="BrokerBCHQuoteNo" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="HPNRBCHQuoteNoEdit" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Order_ID" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="OP-OP" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="187">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -540,10 +541,10 @@
     <t xml:space="preserve">Sheet Name</t>
   </si>
   <si>
-    <t xml:space="preserve">JZO71325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IW-65834</t>
+    <t xml:space="preserve">IAC86886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG-07435</t>
   </si>
   <si>
     <t xml:space="preserve">HPNR (Formula 3) - BCH</t>
@@ -552,7 +553,7 @@
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
-    <t xml:space="preserve">CZ-7953</t>
+    <t xml:space="preserve">ND-9144</t>
   </si>
   <si>
     <t xml:space="preserve">Holding Cost without Maint</t>
@@ -567,25 +568,34 @@
     <t xml:space="preserve">929.36</t>
   </si>
   <si>
-    <t>RG-0124</t>
-  </si>
-  <si>
-    <t>KR-4434</t>
-  </si>
-  <si>
-    <t>HT-5154</t>
-  </si>
-  <si>
-    <t>PP-3242</t>
-  </si>
-  <si>
-    <t>HR-8442</t>
-  </si>
-  <si>
-    <t>MF-0141</t>
-  </si>
-  <si>
-    <t>QP-3607</t>
+    <t xml:space="preserve">Vehicle Sales Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oppo ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24150.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Deposit</t>
+  </si>
+  <si>
+    <t>FZX73344</t>
+  </si>
+  <si>
+    <t>57335.00</t>
+  </si>
+  <si>
+    <t>199.99</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>RK-2876</t>
   </si>
 </sst>
 </file>
@@ -869,7 +879,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1037,7 +1047,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1181,7 +1191,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1519,7 +1529,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1881,7 +1891,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2253,7 +2263,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2283,11 +2293,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.88" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.23" collapsed="false" outlineLevel="0"/>
@@ -2306,7 +2316,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>169</v>
@@ -2322,7 +2332,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,6 +2349,72 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2439,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2513,7 +2589,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2663,7 +2739,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2835,7 +2911,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3007,7 +3083,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3157,7 +3233,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3520,7 +3596,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3670,7 +3746,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="198">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -400,19 +400,22 @@
     <t xml:space="preserve">1586.42</t>
   </si>
   <si>
-    <t xml:space="preserve">VHP00652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM-2551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGU0630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1437.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMC27839</t>
+    <t xml:space="preserve">SWC61694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD-9433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRO5900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4689.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1488.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIW18448</t>
   </si>
   <si>
     <t xml:space="preserve">XH-0462</t>
@@ -421,111 +424,111 @@
     <t xml:space="preserve">QIA1290</t>
   </si>
   <si>
+    <t xml:space="preserve">1705.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOD38793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HF-0997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNM6223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance charges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance payable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">59384.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial cash payment inc. document fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1139.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final balloon payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYN78042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWN65034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI-1855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTD5479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly maint. rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total monthly rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly in advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract mileage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial finance rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial maint. rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total initial rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pence per excess mile - total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quote No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFT90148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF-9615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCM9113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46237.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9247.50</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
   </si>
   <si>
-    <t xml:space="preserve">1612.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOD38793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HF-0997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNM6223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance charges </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">59384.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial cash payment inc. document fee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1139.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final balloon payment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KYN78042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWN65034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI-1855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTD5479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly maint. rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total monthly rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly in advance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract mileage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial finance rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial maint. rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total initial rental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pence per excess mile - total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quote No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PFT90148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF-9615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCM9113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46237.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9247.50</t>
-  </si>
-  <si>
     <t xml:space="preserve">650.00</t>
   </si>
   <si>
@@ -541,10 +544,10 @@
     <t xml:space="preserve">Sheet Name</t>
   </si>
   <si>
-    <t xml:space="preserve">IAC86886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG-07435</t>
+    <t xml:space="preserve">POH31302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VU-79991</t>
   </si>
   <si>
     <t xml:space="preserve">HPNR (Formula 3) - BCH</t>
@@ -553,7 +556,7 @@
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ND-9144</t>
+    <t xml:space="preserve">VW-6857</t>
   </si>
   <si>
     <t xml:space="preserve">Holding Cost without Maint</t>
@@ -574,28 +577,58 @@
     <t xml:space="preserve">Oppo ID</t>
   </si>
   <si>
-    <t xml:space="preserve">24150.00</t>
+    <t xml:space="preserve">57335.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK-1417</t>
   </si>
   <si>
     <t xml:space="preserve">Doc fee</t>
   </si>
   <si>
+    <t xml:space="preserve">199.99</t>
+  </si>
+  <si>
     <t xml:space="preserve">Order Deposit</t>
   </si>
   <si>
-    <t>FZX73344</t>
-  </si>
-  <si>
-    <t>57335.00</t>
-  </si>
-  <si>
-    <t>199.99</t>
-  </si>
-  <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>RK-2876</t>
+    <t xml:space="preserve">Pending Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56074.99</t>
+  </si>
+  <si>
+    <t>WXC63220</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1705.81</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>KT-04626</t>
+  </si>
+  <si>
+    <t>HirePurchaseNonRegulated</t>
+  </si>
+  <si>
+    <t>RZ-70731</t>
+  </si>
+  <si>
+    <t>FL (Formula 3) - PCH</t>
   </si>
 </sst>
 </file>
@@ -715,7 +748,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -793,6 +826,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -879,7 +916,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1047,7 +1084,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1075,20 +1112,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1140,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,13 +1193,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1228,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1529,7 +1566,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1891,7 +1928,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1951,7 +1988,7 @@
         <v>162</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,13 +2008,13 @@
         <v>81</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,7 +2300,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2272,7 +2309,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2293,11 +2330,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.88" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.23" collapsed="false" outlineLevel="0"/>
@@ -2308,47 +2345,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>186</v>
+      <c r="A5" s="20" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2367,54 +2404,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2486,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2589,7 +2636,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2739,7 +2786,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2911,7 +2958,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3083,7 +3130,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3233,7 +3280,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3596,7 +3643,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3746,7 +3793,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -3843,7 +3890,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3861,7 +3908,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,13 +3926,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="205">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -629,6 +629,27 @@
   </si>
   <si>
     <t>FL (Formula 3) - PCH</t>
+  </si>
+  <si>
+    <t>UP-3670</t>
+  </si>
+  <si>
+    <t>TN-3298</t>
+  </si>
+  <si>
+    <t>RJ-19130</t>
+  </si>
+  <si>
+    <t>KHW02252</t>
+  </si>
+  <si>
+    <t>CI-1614</t>
+  </si>
+  <si>
+    <t>OOQ3958</t>
+  </si>
+  <si>
+    <t>BG-09266</t>
   </si>
 </sst>
 </file>
@@ -1112,16 +1133,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
@@ -2356,7 +2377,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>197</v>
@@ -2369,7 +2390,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="219">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -650,6 +650,48 @@
   </si>
   <si>
     <t>BG-09266</t>
+  </si>
+  <si>
+    <t>ZOB36173</t>
+  </si>
+  <si>
+    <t>DEE95547</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>1488.96</t>
+  </si>
+  <si>
+    <t>4689.17</t>
+  </si>
+  <si>
+    <t>YX-6204</t>
+  </si>
+  <si>
+    <t>CWZ6461</t>
+  </si>
+  <si>
+    <t>TOI31237</t>
+  </si>
+  <si>
+    <t>JA-8384</t>
+  </si>
+  <si>
+    <t>TRA4792</t>
+  </si>
+  <si>
+    <t>ZU-54179</t>
+  </si>
+  <si>
+    <t>RL-2791</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1175,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -2377,7 +2419,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>197</v>
@@ -2390,7 +2432,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3844,16 +3886,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3864,7 +3906,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3905,13 +3947,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3929,7 +3971,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,13 +3989,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="189">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -169,18 +169,24 @@
     <t xml:space="preserve">1597.27</t>
   </si>
   <si>
-    <t xml:space="preserve">ZHL06604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JL-2893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSJ4589</t>
+    <t xml:space="preserve">UTJ55364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-1461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HVL6456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/12/26</t>
   </si>
   <si>
     <t xml:space="preserve">Hire Purchase Non-Regulated</t>
   </si>
   <si>
+    <t xml:space="preserve">1951.42</t>
+  </si>
+  <si>
     <t xml:space="preserve">QWF65853</t>
   </si>
   <si>
@@ -211,18 +217,15 @@
     <t xml:space="preserve">1750.47</t>
   </si>
   <si>
-    <t xml:space="preserve">XAP81186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX-7158</t>
+    <t xml:space="preserve">XOA45250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XO-3254</t>
   </si>
   <si>
     <t xml:space="preserve">CQU4326</t>
   </si>
   <si>
-    <t xml:space="preserve">28.61</t>
-  </si>
-  <si>
     <t xml:space="preserve">1460.77</t>
   </si>
   <si>
@@ -400,13 +403,13 @@
     <t xml:space="preserve">1586.42</t>
   </si>
   <si>
-    <t xml:space="preserve">SWC61694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WD-9433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRO5900</t>
+    <t xml:space="preserve">BAF73999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JA-8384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRA4792</t>
   </si>
   <si>
     <t xml:space="preserve">4689.17</t>
@@ -415,13 +418,13 @@
     <t xml:space="preserve">1488.96</t>
   </si>
   <si>
-    <t xml:space="preserve">ZIW18448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XH-0462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QIA1290</t>
+    <t xml:space="preserve">YZJ73568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WL-2117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBC8601</t>
   </si>
   <si>
     <t xml:space="preserve">1705.81</t>
@@ -547,18 +550,15 @@
     <t xml:space="preserve">POH31302</t>
   </si>
   <si>
-    <t xml:space="preserve">VU-79991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPNR (Formula 3) - BCH</t>
+    <t xml:space="preserve">JA-86882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL (Formula 3) - PCH</t>
   </si>
   <si>
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
-    <t xml:space="preserve">VW-6857</t>
-  </si>
-  <si>
     <t xml:space="preserve">Holding Cost without Maint</t>
   </si>
   <si>
@@ -598,100 +598,10 @@
     <t xml:space="preserve">56074.99</t>
   </si>
   <si>
-    <t>WXC63220</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
-  </si>
-  <si>
-    <t>Hire Purchase Non-Regulated</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1705.81</t>
-  </si>
-  <si>
-    <t>1030.00</t>
-  </si>
-  <si>
-    <t>KT-04626</t>
-  </si>
-  <si>
-    <t>HirePurchaseNonRegulated</t>
-  </si>
-  <si>
-    <t>RZ-70731</t>
-  </si>
-  <si>
-    <t>FL (Formula 3) - PCH</t>
-  </si>
-  <si>
-    <t>UP-3670</t>
-  </si>
-  <si>
-    <t>TN-3298</t>
-  </si>
-  <si>
-    <t>RJ-19130</t>
-  </si>
-  <si>
-    <t>KHW02252</t>
-  </si>
-  <si>
-    <t>CI-1614</t>
-  </si>
-  <si>
-    <t>OOQ3958</t>
-  </si>
-  <si>
-    <t>BG-09266</t>
-  </si>
-  <si>
-    <t>ZOB36173</t>
-  </si>
-  <si>
-    <t>DEE95547</t>
-  </si>
-  <si>
-    <t>Business Contract Hire</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>1488.96</t>
-  </si>
-  <si>
-    <t>4689.17</t>
-  </si>
-  <si>
-    <t>YX-6204</t>
-  </si>
-  <si>
-    <t>CWZ6461</t>
-  </si>
-  <si>
-    <t>TOI31237</t>
-  </si>
-  <si>
-    <t>JA-8384</t>
-  </si>
-  <si>
-    <t>TRA4792</t>
-  </si>
-  <si>
-    <t>ZU-54179</t>
-  </si>
-  <si>
-    <t>RL-2791</t>
+    <t>OO-3878</t>
+  </si>
+  <si>
+    <t>QU-5071</t>
   </si>
 </sst>
 </file>
@@ -979,7 +889,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1147,7 +1057,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1175,20 +1085,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1240,7 +1150,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,13 +1166,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1201,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1314,7 +1224,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1325,29 +1235,29 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>10</v>
@@ -1367,16 +1277,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,13 +1294,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,7 +1323,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,16 +1337,16 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,13 +1359,13 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>39</v>
@@ -1471,16 +1381,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,16 +1403,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,16 +1423,16 @@
     </row>
     <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,16 +1445,16 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,13 +1465,13 @@
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>41</v>
@@ -1577,16 +1487,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,7 +1539,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1640,7 +1550,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1653,7 +1563,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1664,29 +1574,29 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>10</v>
@@ -1706,16 +1616,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,13 +1633,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,7 +1662,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,13 +1676,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1784,16 +1694,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,16 +1716,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,16 +1738,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,13 +1760,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -1872,13 +1782,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -1894,16 +1804,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,7 +1901,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2002,7 +1912,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2015,7 +1925,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -2026,32 +1936,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,16 +1978,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,7 +2001,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2114,7 +2024,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2129,13 +2039,13 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -2147,16 +2057,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,16 +2079,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,16 +2101,16 @@
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,13 +2123,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
@@ -2235,13 +2145,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -2257,16 +2167,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,7 +2273,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2372,7 +2282,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2393,11 +2303,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.88" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.23" collapsed="false" outlineLevel="0"/>
@@ -2408,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,7 +2383,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2488,7 +2398,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>180</v>
@@ -2514,7 +2424,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +2459,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2699,7 +2609,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2743,7 +2653,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>10</v>
@@ -2777,7 +2687,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
@@ -2820,7 +2730,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2759,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2883,16 +2793,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -2944,31 +2854,31 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,7 +2902,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +2931,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3055,20 +2965,20 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3122,25 +3032,25 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,7 +3074,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3103,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3216,7 +3126,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>4</v>
@@ -3224,16 +3134,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="0" t="s">
@@ -3254,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>13</v>
@@ -3277,13 +3187,13 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>39</v>
@@ -3292,7 +3202,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,13 +3218,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3253,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3366,7 +3276,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -3379,29 +3289,29 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>10</v>
@@ -3421,16 +3331,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3444,7 +3354,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,7 +3377,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,13 +3391,13 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -3503,16 +3413,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,13 +3435,13 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>39</v>
@@ -3547,16 +3457,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,16 +3479,16 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,16 +3499,16 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,16 +3521,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,13 +3541,13 @@
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -3653,16 +3563,16 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,7 +3616,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3729,16 +3639,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3782,13 +3692,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3800,13 +3710,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,13 +3730,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -3852,11 +3762,11 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -3886,16 +3796,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3906,7 +3816,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,13 +3857,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3965,13 +3875,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3989,13 +3899,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="HPNRBCH_withMaint" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="198">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -169,13 +169,13 @@
     <t xml:space="preserve">1597.27</t>
   </si>
   <si>
-    <t xml:space="preserve">UTJ55364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI-1461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HVL6456</t>
+    <t xml:space="preserve">YRH49625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IG-0454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WLY2091</t>
   </si>
   <si>
     <t xml:space="preserve">05/12/26</t>
@@ -406,7 +406,7 @@
     <t xml:space="preserve">BAF73999</t>
   </si>
   <si>
-    <t xml:space="preserve">JA-8384</t>
+    <t xml:space="preserve">QU-5071</t>
   </si>
   <si>
     <t xml:space="preserve">TRA4792</t>
@@ -418,13 +418,13 @@
     <t xml:space="preserve">1488.96</t>
   </si>
   <si>
-    <t xml:space="preserve">YZJ73568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WL-2117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBC8601</t>
+    <t xml:space="preserve">VTX52571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD-9559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR8963</t>
   </si>
   <si>
     <t xml:space="preserve">1705.81</t>
@@ -550,7 +550,7 @@
     <t xml:space="preserve">POH31302</t>
   </si>
   <si>
-    <t xml:space="preserve">JA-86882</t>
+    <t xml:space="preserve">OT-52677</t>
   </si>
   <si>
     <t xml:space="preserve">FL (Formula 3) - PCH</t>
@@ -598,10 +598,37 @@
     <t xml:space="preserve">56074.99</t>
   </si>
   <si>
-    <t>OO-3878</t>
-  </si>
-  <si>
-    <t>QU-5071</t>
+    <t>BFL93880</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>Business Contract Hire</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>1460.77</t>
+  </si>
+  <si>
+    <t>05/12/26</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>QU-5119</t>
+  </si>
+  <si>
+    <t>ZGL0823</t>
+  </si>
+  <si>
+    <t>UO-32501</t>
   </si>
 </sst>
 </file>
@@ -889,7 +916,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1057,7 +1084,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1201,7 +1228,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1539,7 +1566,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1901,7 +1928,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2273,7 +2300,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2303,11 +2330,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.88" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.23" collapsed="false" outlineLevel="0"/>
@@ -2329,7 +2356,7 @@
         <v>170</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>172</v>
@@ -2342,7 +2369,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,7 +2410,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2459,7 +2486,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2609,7 +2636,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2759,7 +2786,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2931,7 +2958,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -2965,27 +2992,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,13 +3053,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>55</v>
@@ -3050,7 +3077,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,13 +3095,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3130,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3253,7 +3280,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3616,7 +3643,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3762,11 +3789,11 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -3802,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>124</v>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="208">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -629,6 +629,36 @@
   </si>
   <si>
     <t>UO-32501</t>
+  </si>
+  <si>
+    <t>GEF92589</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>1488.96</t>
+  </si>
+  <si>
+    <t>4689.17</t>
+  </si>
+  <si>
+    <t>CC-9826</t>
+  </si>
+  <si>
+    <t>WM-2556</t>
+  </si>
+  <si>
+    <t>DM-2883</t>
+  </si>
+  <si>
+    <t>TYJ7717</t>
+  </si>
+  <si>
+    <t>HG-04420</t>
   </si>
 </sst>
 </file>
@@ -2356,7 +2386,7 @@
         <v>170</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>172</v>
@@ -2369,7 +2399,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,16 +3853,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3843,7 +3873,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,13 +3914,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3908,7 +3938,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,13 +3956,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="236">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -659,6 +659,90 @@
   </si>
   <si>
     <t>HG-04420</t>
+  </si>
+  <si>
+    <t>BEY91692</t>
+  </si>
+  <si>
+    <t>ML-2157</t>
+  </si>
+  <si>
+    <t>QZO7660</t>
+  </si>
+  <si>
+    <t>JA-88032</t>
+  </si>
+  <si>
+    <t>HGM18206</t>
+  </si>
+  <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1705.81</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>NY-7075</t>
+  </si>
+  <si>
+    <t>TJR1389</t>
+  </si>
+  <si>
+    <t>SO-33748</t>
+  </si>
+  <si>
+    <t>YZZ78325</t>
+  </si>
+  <si>
+    <t>IT-5985</t>
+  </si>
+  <si>
+    <t>ATR0190</t>
+  </si>
+  <si>
+    <t>CW-6286</t>
+  </si>
+  <si>
+    <t>DUZ5121</t>
+  </si>
+  <si>
+    <t>GA-4268</t>
+  </si>
+  <si>
+    <t>RJS1130</t>
+  </si>
+  <si>
+    <t>LU-53326</t>
+  </si>
+  <si>
+    <t>UDF99586</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1951.42</t>
+  </si>
+  <si>
+    <t>469.92</t>
+  </si>
+  <si>
+    <t>PZ-7772</t>
+  </si>
+  <si>
+    <t>LFO9096</t>
+  </si>
+  <si>
+    <t>HN-38717</t>
   </si>
 </sst>
 </file>
@@ -1142,20 +1226,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1207,7 +1291,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,13 +1307,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2470,7 @@
         <v>170</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>172</v>
@@ -2399,7 +2483,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,23 +2781,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,13 +2828,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2765,7 +2849,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,13 +2865,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3853,16 +3937,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="223">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -169,13 +169,13 @@
     <t xml:space="preserve">1597.27</t>
   </si>
   <si>
-    <t xml:space="preserve">YRH49625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IG-0454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WLY2091</t>
+    <t xml:space="preserve">VYK70618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQ-4184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDC0047</t>
   </si>
   <si>
     <t xml:space="preserve">05/12/26</t>
@@ -217,16 +217,19 @@
     <t xml:space="preserve">1750.47</t>
   </si>
   <si>
-    <t xml:space="preserve">XOA45250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XO-3254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CQU4326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1460.77</t>
+    <t xml:space="preserve">EFH04078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL-2908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WVR6558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">883.08</t>
   </si>
   <si>
     <t xml:space="preserve">Funder Specific Expiry Date</t>
@@ -403,28 +406,25 @@
     <t xml:space="preserve">1586.42</t>
   </si>
   <si>
-    <t xml:space="preserve">BAF73999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QU-5071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRA4792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4689.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1488.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTX52571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD-9559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCR8963</t>
+    <t xml:space="preserve">LQK46728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ-4595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGS0503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1256.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OQO42585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR-4801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCQ8512</t>
   </si>
   <si>
     <t xml:space="preserve">1705.81</t>
@@ -514,28 +514,22 @@
     <t xml:space="preserve">Quote No.</t>
   </si>
   <si>
-    <t xml:space="preserve">PFT90148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF-9615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCM9113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46237.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9247.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro S Line 5dr S Tronic</t>
+    <t xml:space="preserve">UCC81180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF-0427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UVC6592</t>
   </si>
   <si>
     <t xml:space="preserve">650.00</t>
   </si>
   <si>
-    <t xml:space="preserve">56135.00</t>
+    <t xml:space="preserve">58535.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2026</t>
   </si>
   <si>
     <t xml:space="preserve">HYT70716</t>
@@ -547,18 +541,21 @@
     <t xml:space="preserve">Sheet Name</t>
   </si>
   <si>
-    <t xml:space="preserve">POH31302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OT-52677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FL (Formula 3) - PCH</t>
+    <t xml:space="preserve">DGQ08054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WA-84451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FL (Formula 3) - BCH</t>
   </si>
   <si>
     <t xml:space="preserve">Opportunity ID</t>
   </si>
   <si>
+    <t xml:space="preserve">TV-6518</t>
+  </si>
+  <si>
     <t xml:space="preserve">Holding Cost without Maint</t>
   </si>
   <si>
@@ -577,16 +574,16 @@
     <t xml:space="preserve">Oppo ID</t>
   </si>
   <si>
-    <t xml:space="preserve">57335.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BK-1417</t>
+    <t xml:space="preserve">9550.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR-4126</t>
   </si>
   <si>
     <t xml:space="preserve">Doc fee</t>
   </si>
   <si>
-    <t xml:space="preserve">199.99</t>
+    <t xml:space="preserve">200.00</t>
   </si>
   <si>
     <t xml:space="preserve">Order Deposit</t>
@@ -595,13 +592,73 @@
     <t xml:space="preserve">Pending Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">56074.99</t>
-  </si>
-  <si>
-    <t>BFL93880</t>
-  </si>
-  <si>
-    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+    <t xml:space="preserve">8290.00</t>
+  </si>
+  <si>
+    <t>IW-66259</t>
+  </si>
+  <si>
+    <t>KAS82258</t>
+  </si>
+  <si>
+    <t>9550.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>8290.00</t>
+  </si>
+  <si>
+    <t>BX-0624</t>
+  </si>
+  <si>
+    <t>JS-49457</t>
+  </si>
+  <si>
+    <t>IJF16970</t>
+  </si>
+  <si>
+    <t>PY-7448</t>
+  </si>
+  <si>
+    <t>LO-33756</t>
+  </si>
+  <si>
+    <t>EP-39193</t>
+  </si>
+  <si>
+    <t>FL (Formula 3) - PCH</t>
+  </si>
+  <si>
+    <t>ZLO29981</t>
+  </si>
+  <si>
+    <t>AS-53996</t>
+  </si>
+  <si>
+    <t>HPNR_used_car</t>
+  </si>
+  <si>
+    <t>SR-4951</t>
+  </si>
+  <si>
+    <t>AW-61087</t>
+  </si>
+  <si>
+    <t>BCH (Formula 3) - BCH</t>
+  </si>
+  <si>
+    <t>UU-8470</t>
+  </si>
+  <si>
+    <t>WAV89307</t>
+  </si>
+  <si>
+    <t>MERCEDES-BENZ A CLASS AMG HATCHBACK (2019 - Current) A35 4Matic Premium 5dr Auto</t>
   </si>
   <si>
     <t>Business Contract Hire</t>
@@ -613,136 +670,40 @@
     <t>5000</t>
   </si>
   <si>
-    <t>1460.77</t>
+    <t>1472.15</t>
   </si>
   <si>
     <t>05/12/26</t>
   </si>
   <si>
-    <t>5.28</t>
-  </si>
-  <si>
-    <t>QU-5119</t>
-  </si>
-  <si>
-    <t>ZGL0823</t>
-  </si>
-  <si>
-    <t>UO-32501</t>
-  </si>
-  <si>
-    <t>GEF92589</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>35000</t>
-  </si>
-  <si>
-    <t>1488.96</t>
-  </si>
-  <si>
-    <t>4689.17</t>
-  </si>
-  <si>
-    <t>CC-9826</t>
-  </si>
-  <si>
-    <t>WM-2556</t>
-  </si>
-  <si>
-    <t>DM-2883</t>
-  </si>
-  <si>
-    <t>TYJ7717</t>
-  </si>
-  <si>
-    <t>HG-04420</t>
-  </si>
-  <si>
-    <t>BEY91692</t>
-  </si>
-  <si>
-    <t>ML-2157</t>
-  </si>
-  <si>
-    <t>QZO7660</t>
-  </si>
-  <si>
-    <t>JA-88032</t>
-  </si>
-  <si>
-    <t>HGM18206</t>
-  </si>
-  <si>
-    <t>Hire Purchase Non-Regulated</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>1705.81</t>
-  </si>
-  <si>
-    <t>1030.00</t>
-  </si>
-  <si>
-    <t>NY-7075</t>
-  </si>
-  <si>
-    <t>TJR1389</t>
-  </si>
-  <si>
-    <t>SO-33748</t>
-  </si>
-  <si>
-    <t>YZZ78325</t>
-  </si>
-  <si>
-    <t>IT-5985</t>
-  </si>
-  <si>
-    <t>ATR0190</t>
-  </si>
-  <si>
-    <t>CW-6286</t>
-  </si>
-  <si>
-    <t>DUZ5121</t>
-  </si>
-  <si>
-    <t>GA-4268</t>
-  </si>
-  <si>
-    <t>RJS1130</t>
-  </si>
-  <si>
-    <t>LU-53326</t>
-  </si>
-  <si>
-    <t>UDF99586</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1951.42</t>
-  </si>
-  <si>
-    <t>469.92</t>
-  </si>
-  <si>
-    <t>PZ-7772</t>
-  </si>
-  <si>
-    <t>LFO9096</t>
-  </si>
-  <si>
-    <t>HN-38717</t>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>UU-5370</t>
+  </si>
+  <si>
+    <t>VQA48090</t>
+  </si>
+  <si>
+    <t>WY-7138</t>
+  </si>
+  <si>
+    <t>DG-0956</t>
+  </si>
+  <si>
+    <t>NCQ1250</t>
+  </si>
+  <si>
+    <t>CDR91727</t>
+  </si>
+  <si>
+    <t>KM-2479</t>
+  </si>
+  <si>
+    <t>IVT6274</t>
+  </si>
+  <si>
+    <t>DR-46913</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +991,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -1198,7 +1159,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1226,20 +1187,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1291,7 +1252,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,13 +1268,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1303,7 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -1365,7 +1326,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1389,16 +1350,16 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>10</v>
@@ -1418,16 +1379,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1425,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,16 +1439,16 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,13 +1461,13 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>39</v>
@@ -1522,16 +1483,16 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,10 +1505,10 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>135</v>
@@ -1586,16 +1547,16 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,13 +1567,13 @@
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>41</v>
@@ -1628,16 +1589,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,7 +1641,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -1704,7 +1665,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -1728,16 +1689,16 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>10</v>
@@ -1757,16 +1718,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +1764,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,16 +1796,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,10 +1818,10 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>149</v>
@@ -1888,7 +1849,7 @@
         <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,13 +1884,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -1954,7 +1915,7 @@
         <v>157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,7 +2003,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.08203125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.27" collapsed="false" outlineLevel="0"/>
@@ -2066,7 +2027,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -2090,19 +2051,19 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,16 +2080,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,7 +2126,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2198,16 +2159,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,10 +2181,10 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>149</v>
@@ -2251,7 +2212,7 @@
         <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,13 +2247,13 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>17</v>
@@ -2317,7 +2278,7 @@
         <v>157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,7 +2375,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2423,7 +2384,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2406,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="23.88" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="21.23" collapsed="false" outlineLevel="0"/>
@@ -2459,47 +2420,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2524,58 +2485,58 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2600,7 +2561,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2750,7 +2711,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -2781,23 +2742,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,13 +2789,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2849,7 +2810,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>232</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,13 +2826,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2861,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3072,7 +3033,7 @@
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="22.55" collapsed="false" outlineLevel="0"/>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
@@ -3106,27 +3067,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,13 +3128,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>55</v>
@@ -3191,7 +3152,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,13 +3170,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3205,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3267,7 +3228,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>4</v>
@@ -3275,16 +3236,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="0" t="s">
@@ -3305,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>13</v>
@@ -3328,13 +3289,13 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>39</v>
@@ -3343,7 +3304,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,13 +3320,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3394,7 +3355,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="12.56" collapsed="false" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.74" collapsed="false" outlineLevel="0"/>
@@ -3417,7 +3378,7 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -3430,29 +3391,29 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>10</v>
@@ -3472,16 +3433,16 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="F4" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3518,7 +3479,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,13 +3493,13 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -3554,16 +3515,16 @@
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,13 +3537,13 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>39</v>
@@ -3598,16 +3559,16 @@
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,16 +3581,16 @@
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,16 +3601,16 @@
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,16 +3623,16 @@
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,13 +3643,13 @@
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
@@ -3704,16 +3665,16 @@
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,7 +3718,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3780,16 +3741,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3839,7 +3800,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -3851,13 +3812,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,13 +3832,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -3907,7 +3868,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="11" max="11" customWidth="true" hidden="false" style="0" width="24.07" collapsed="false" outlineLevel="0"/>
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="21.85" collapsed="false" outlineLevel="0"/>
@@ -3937,16 +3898,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -3957,7 +3918,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,13 +3959,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -4016,13 +3977,13 @@
         <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,13 +4001,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="286">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -704,6 +704,195 @@
   </si>
   <si>
     <t>DR-46913</t>
+  </si>
+  <si>
+    <t>HUJ58472</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>868.23</t>
+  </si>
+  <si>
+    <t>LF-0751</t>
+  </si>
+  <si>
+    <t>GLS2786</t>
+  </si>
+  <si>
+    <t>OC-89693</t>
+  </si>
+  <si>
+    <t>TBV89866</t>
+  </si>
+  <si>
+    <t>SI-1135</t>
+  </si>
+  <si>
+    <t>FGA0378</t>
+  </si>
+  <si>
+    <t>JGH04970</t>
+  </si>
+  <si>
+    <t>PE-9577</t>
+  </si>
+  <si>
+    <t>PHK0538</t>
+  </si>
+  <si>
+    <t>CX-72692</t>
+  </si>
+  <si>
+    <t>KUI55716</t>
+  </si>
+  <si>
+    <t>BPL30314</t>
+  </si>
+  <si>
+    <t>CKJ15328</t>
+  </si>
+  <si>
+    <t>SL-2902</t>
+  </si>
+  <si>
+    <t>OQZ4021</t>
+  </si>
+  <si>
+    <t>VE-96717</t>
+  </si>
+  <si>
+    <t>UFI93140</t>
+  </si>
+  <si>
+    <t>AF-9778</t>
+  </si>
+  <si>
+    <t>NXU7740</t>
+  </si>
+  <si>
+    <t>HC-44863</t>
+  </si>
+  <si>
+    <t>DXT62851</t>
+  </si>
+  <si>
+    <t>JG-0343</t>
+  </si>
+  <si>
+    <t>UCT8580</t>
+  </si>
+  <si>
+    <t>LM-25908</t>
+  </si>
+  <si>
+    <t>LKQ12016</t>
+  </si>
+  <si>
+    <t>CI-1245</t>
+  </si>
+  <si>
+    <t>CSQ5955</t>
+  </si>
+  <si>
+    <t>OER94095</t>
+  </si>
+  <si>
+    <t>AUDI A7 DIESEL SPORTBACK (2018 - Current) 40 TDI Quattro Black Edition 5dr S Tronic</t>
+  </si>
+  <si>
+    <t>883.08</t>
+  </si>
+  <si>
+    <t>14.24</t>
+  </si>
+  <si>
+    <t>AG-0107</t>
+  </si>
+  <si>
+    <t>AQO4806</t>
+  </si>
+  <si>
+    <t>VK-26711</t>
+  </si>
+  <si>
+    <t>SMV20351</t>
+  </si>
+  <si>
+    <t>FH-0210</t>
+  </si>
+  <si>
+    <t>MXD6419</t>
+  </si>
+  <si>
+    <t>PT-50517</t>
+  </si>
+  <si>
+    <t>WNN36783</t>
+  </si>
+  <si>
+    <t>QQ-4785</t>
+  </si>
+  <si>
+    <t>TMN24155</t>
+  </si>
+  <si>
+    <t>LC-8486</t>
+  </si>
+  <si>
+    <t>AWG6863</t>
+  </si>
+  <si>
+    <t>GW-69888</t>
+  </si>
+  <si>
+    <t>QAR82698</t>
+  </si>
+  <si>
+    <t>Hire Purchase Non-Regulated</t>
+  </si>
+  <si>
+    <t>1529.87</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>NK-1604</t>
+  </si>
+  <si>
+    <t>HFN9406</t>
+  </si>
+  <si>
+    <t>CJ-10098</t>
+  </si>
+  <si>
+    <t>EYU73702</t>
+  </si>
+  <si>
+    <t>613.48</t>
+  </si>
+  <si>
+    <t>FC-8478</t>
+  </si>
+  <si>
+    <t>DJE1010</t>
+  </si>
+  <si>
+    <t>HZ-72967</t>
+  </si>
+  <si>
+    <t>KZP72236</t>
+  </si>
+  <si>
+    <t>HA-8675</t>
+  </si>
+  <si>
+    <t>SRU4442</t>
+  </si>
+  <si>
+    <t>DD-95258</t>
   </si>
 </sst>
 </file>
@@ -2431,7 +2620,7 @@
         <v>199</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>204</v>
@@ -2444,7 +2633,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,23 +2931,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,13 +2978,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -2810,7 +2999,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>42</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,13 +3015,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3067,16 +3256,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -3134,7 +3323,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>55</v>
@@ -3176,7 +3365,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="353">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -893,6 +893,207 @@
   </si>
   <si>
     <t>DD-95258</t>
+  </si>
+  <si>
+    <t>UZN79685</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>264.26</t>
+  </si>
+  <si>
+    <t>XZ-7012</t>
+  </si>
+  <si>
+    <t>EJC1780</t>
+  </si>
+  <si>
+    <t>SGG03161</t>
+  </si>
+  <si>
+    <t>OV-6493</t>
+  </si>
+  <si>
+    <t>AWG6315</t>
+  </si>
+  <si>
+    <t>MK-15047</t>
+  </si>
+  <si>
+    <t>GR-3945</t>
+  </si>
+  <si>
+    <t>HXE6833</t>
+  </si>
+  <si>
+    <t>SC-85495</t>
+  </si>
+  <si>
+    <t>EVE60984</t>
+  </si>
+  <si>
+    <t>380.71</t>
+  </si>
+  <si>
+    <t>BN-2380</t>
+  </si>
+  <si>
+    <t>BRI4971</t>
+  </si>
+  <si>
+    <t>KL-26236</t>
+  </si>
+  <si>
+    <t>DRI42447</t>
+  </si>
+  <si>
+    <t>BP-3631</t>
+  </si>
+  <si>
+    <t>NNM2708</t>
+  </si>
+  <si>
+    <t>YJ-14003</t>
+  </si>
+  <si>
+    <t>QXW63656</t>
+  </si>
+  <si>
+    <t>ZT-5069</t>
+  </si>
+  <si>
+    <t>GTV5853</t>
+  </si>
+  <si>
+    <t>IM-25746</t>
+  </si>
+  <si>
+    <t>HBD83706</t>
+  </si>
+  <si>
+    <t>1256.29</t>
+  </si>
+  <si>
+    <t>1030.00</t>
+  </si>
+  <si>
+    <t>RD-9004</t>
+  </si>
+  <si>
+    <t>UZZ7445</t>
+  </si>
+  <si>
+    <t>BK-26139</t>
+  </si>
+  <si>
+    <t>KDG91852</t>
+  </si>
+  <si>
+    <t>HQ-4615</t>
+  </si>
+  <si>
+    <t>XGD0812</t>
+  </si>
+  <si>
+    <t>FX-78317</t>
+  </si>
+  <si>
+    <t>WEX97908</t>
+  </si>
+  <si>
+    <t>QZ-7033</t>
+  </si>
+  <si>
+    <t>LWQ6661</t>
+  </si>
+  <si>
+    <t>PG-07072</t>
+  </si>
+  <si>
+    <t>SW-6838</t>
+  </si>
+  <si>
+    <t>WTP5949</t>
+  </si>
+  <si>
+    <t>ES-4297</t>
+  </si>
+  <si>
+    <t>HHD3456</t>
+  </si>
+  <si>
+    <t>BM-27578</t>
+  </si>
+  <si>
+    <t>SSF43070</t>
+  </si>
+  <si>
+    <t>1705.81</t>
+  </si>
+  <si>
+    <t>CB-8810</t>
+  </si>
+  <si>
+    <t>NFG9996</t>
+  </si>
+  <si>
+    <t>LZ-70423</t>
+  </si>
+  <si>
+    <t>NHM01688</t>
+  </si>
+  <si>
+    <t>AP-3944</t>
+  </si>
+  <si>
+    <t>RKF1837</t>
+  </si>
+  <si>
+    <t>IF-96679</t>
+  </si>
+  <si>
+    <t>XFJ94833</t>
+  </si>
+  <si>
+    <t>NZ-7835</t>
+  </si>
+  <si>
+    <t>THX0450</t>
+  </si>
+  <si>
+    <t>WQ-48374</t>
+  </si>
+  <si>
+    <t>CWT12978</t>
+  </si>
+  <si>
+    <t>FR-4830</t>
+  </si>
+  <si>
+    <t>YSF4723</t>
+  </si>
+  <si>
+    <t>OP-38804</t>
+  </si>
+  <si>
+    <t>VSH42938</t>
+  </si>
+  <si>
+    <t>TB-8141</t>
+  </si>
+  <si>
+    <t>SGC0787</t>
+  </si>
+  <si>
+    <t>YCN84506</t>
+  </si>
+  <si>
+    <t>LW-6863</t>
   </si>
 </sst>
 </file>
@@ -1376,20 +1577,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>127</v>
+        <v>351</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,13 +1621,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>70</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1441,7 +1642,7 @@
         <v>41</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,13 +1658,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +2821,7 @@
         <v>199</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>204</v>
@@ -2633,7 +2834,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,16 +3132,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>283</v>
+        <v>345</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -3256,16 +3457,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -4087,16 +4288,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -4107,7 +4308,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,13 +4349,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>70</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -4172,7 +4373,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>72</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,13 +4391,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="555">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1094,6 +1094,612 @@
   </si>
   <si>
     <t>LW-6863</t>
+  </si>
+  <si>
+    <t>ZF-0626</t>
+  </si>
+  <si>
+    <t>CL-2206</t>
+  </si>
+  <si>
+    <t>AU-5106</t>
+  </si>
+  <si>
+    <t>WI-4821</t>
+  </si>
+  <si>
+    <t>QX-6569</t>
+  </si>
+  <si>
+    <t>MM-2913</t>
+  </si>
+  <si>
+    <t>EM-0531</t>
+  </si>
+  <si>
+    <t>QZ-7889</t>
+  </si>
+  <si>
+    <t>ED-0564</t>
+  </si>
+  <si>
+    <t>CS-4239</t>
+  </si>
+  <si>
+    <t>SBF83232</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>2014.06</t>
+  </si>
+  <si>
+    <t>4689.17</t>
+  </si>
+  <si>
+    <t>UD-9474</t>
+  </si>
+  <si>
+    <t>JX-7967</t>
+  </si>
+  <si>
+    <t>VZG7466</t>
+  </si>
+  <si>
+    <t>QE-9218</t>
+  </si>
+  <si>
+    <t>MVA69130</t>
+  </si>
+  <si>
+    <t>VO-3489</t>
+  </si>
+  <si>
+    <t>LA-8035</t>
+  </si>
+  <si>
+    <t>PB-9526</t>
+  </si>
+  <si>
+    <t>VFL0415</t>
+  </si>
+  <si>
+    <t>DD-9112</t>
+  </si>
+  <si>
+    <t>MS-5680</t>
+  </si>
+  <si>
+    <t>AT-5512</t>
+  </si>
+  <si>
+    <t>VXU72112</t>
+  </si>
+  <si>
+    <t>ZA-0628</t>
+  </si>
+  <si>
+    <t>ANR3925</t>
+  </si>
+  <si>
+    <t>LU-5703</t>
+  </si>
+  <si>
+    <t>RS-5036</t>
+  </si>
+  <si>
+    <t>GH-0108</t>
+  </si>
+  <si>
+    <t>JF-0883</t>
+  </si>
+  <si>
+    <t>CR-4125</t>
+  </si>
+  <si>
+    <t>FJ-1024</t>
+  </si>
+  <si>
+    <t>DR-4069</t>
+  </si>
+  <si>
+    <t>MW-6647</t>
+  </si>
+  <si>
+    <t>XV-6603</t>
+  </si>
+  <si>
+    <t>YL-2309</t>
+  </si>
+  <si>
+    <t>SM-2392</t>
+  </si>
+  <si>
+    <t>QR-4534</t>
+  </si>
+  <si>
+    <t>IL-2086</t>
+  </si>
+  <si>
+    <t>EU-6964</t>
+  </si>
+  <si>
+    <t>CO-3000</t>
+  </si>
+  <si>
+    <t>DJN16881</t>
+  </si>
+  <si>
+    <t>1491.92</t>
+  </si>
+  <si>
+    <t>SM-2228</t>
+  </si>
+  <si>
+    <t>CUO5755</t>
+  </si>
+  <si>
+    <t>RG-1593</t>
+  </si>
+  <si>
+    <t>PC-8416</t>
+  </si>
+  <si>
+    <t>URY45609</t>
+  </si>
+  <si>
+    <t>LF-0235</t>
+  </si>
+  <si>
+    <t>NZ-7098</t>
+  </si>
+  <si>
+    <t>ULJ2456</t>
+  </si>
+  <si>
+    <t>GH-9912</t>
+  </si>
+  <si>
+    <t>LN-3503</t>
+  </si>
+  <si>
+    <t>KJ-1109</t>
+  </si>
+  <si>
+    <t>PTU58216</t>
+  </si>
+  <si>
+    <t>MV-6420</t>
+  </si>
+  <si>
+    <t>TLC2267</t>
+  </si>
+  <si>
+    <t>WF-0183</t>
+  </si>
+  <si>
+    <t>QIA15941</t>
+  </si>
+  <si>
+    <t>IN-3972</t>
+  </si>
+  <si>
+    <t>GS-4305</t>
+  </si>
+  <si>
+    <t>MWT6917</t>
+  </si>
+  <si>
+    <t>ZBW23693</t>
+  </si>
+  <si>
+    <t>584.38</t>
+  </si>
+  <si>
+    <t>VG-0092</t>
+  </si>
+  <si>
+    <t>CC-9497</t>
+  </si>
+  <si>
+    <t>NFO0519</t>
+  </si>
+  <si>
+    <t>TE-0518</t>
+  </si>
+  <si>
+    <t>WY-7287</t>
+  </si>
+  <si>
+    <t>MZ-7312</t>
+  </si>
+  <si>
+    <t>UZ-7437</t>
+  </si>
+  <si>
+    <t>KA-7077</t>
+  </si>
+  <si>
+    <t>PE-9963</t>
+  </si>
+  <si>
+    <t>CL-2706</t>
+  </si>
+  <si>
+    <t>XD-9079</t>
+  </si>
+  <si>
+    <t>VK-1853</t>
+  </si>
+  <si>
+    <t>BA-8300</t>
+  </si>
+  <si>
+    <t>LD-9598</t>
+  </si>
+  <si>
+    <t>TV-6470</t>
+  </si>
+  <si>
+    <t>CP-4143</t>
+  </si>
+  <si>
+    <t>NO-3566</t>
+  </si>
+  <si>
+    <t>TU-5513</t>
+  </si>
+  <si>
+    <t>UR-4783</t>
+  </si>
+  <si>
+    <t>XV-6044</t>
+  </si>
+  <si>
+    <t>KM-2744</t>
+  </si>
+  <si>
+    <t>UG-0100</t>
+  </si>
+  <si>
+    <t>SZ-7316</t>
+  </si>
+  <si>
+    <t>GC-9668</t>
+  </si>
+  <si>
+    <t>OP-4822</t>
+  </si>
+  <si>
+    <t>AV-6037</t>
+  </si>
+  <si>
+    <t>JJ-1334</t>
+  </si>
+  <si>
+    <t>EG-03669</t>
+  </si>
+  <si>
+    <t>WA-87494</t>
+  </si>
+  <si>
+    <t>HPNR (Formula 3) - BCH</t>
+  </si>
+  <si>
+    <t>RQF42128</t>
+  </si>
+  <si>
+    <t>PF-99231</t>
+  </si>
+  <si>
+    <t>HirePurchaseNonRegulated</t>
+  </si>
+  <si>
+    <t>OR-43381</t>
+  </si>
+  <si>
+    <t>KL-26311</t>
+  </si>
+  <si>
+    <t>WY-74664</t>
+  </si>
+  <si>
+    <t>ZZ-77486</t>
+  </si>
+  <si>
+    <t>CP (Formula 3) - BCH</t>
+  </si>
+  <si>
+    <t>900.75</t>
+  </si>
+  <si>
+    <t>929.36</t>
+  </si>
+  <si>
+    <t>NP-38677</t>
+  </si>
+  <si>
+    <t>FL (Formula 3) - BCH</t>
+  </si>
+  <si>
+    <t>CL-28580</t>
+  </si>
+  <si>
+    <t>WE-90076</t>
+  </si>
+  <si>
+    <t>FNE30538</t>
+  </si>
+  <si>
+    <t>FR-45238</t>
+  </si>
+  <si>
+    <t>QDU96569</t>
+  </si>
+  <si>
+    <t>59735.00</t>
+  </si>
+  <si>
+    <t>199.99</t>
+  </si>
+  <si>
+    <t>58474.99</t>
+  </si>
+  <si>
+    <t>VF-9106</t>
+  </si>
+  <si>
+    <t>WQ-45992</t>
+  </si>
+  <si>
+    <t>PVU65112</t>
+  </si>
+  <si>
+    <t>9750.00</t>
+  </si>
+  <si>
+    <t>8490.00</t>
+  </si>
+  <si>
+    <t>UY-7693</t>
+  </si>
+  <si>
+    <t>FD-94744</t>
+  </si>
+  <si>
+    <t>VPL33021</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>QACompany2201</t>
+  </si>
+  <si>
+    <t>REF001</t>
+  </si>
+  <si>
+    <t>04/12/2026</t>
+  </si>
+  <si>
+    <t>Monthly in advance</t>
+  </si>
+  <si>
+    <t>5417</t>
+  </si>
+  <si>
+    <t>2.00 p</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>48237.50</t>
+  </si>
+  <si>
+    <t>9647.50</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>58535.00</t>
+  </si>
+  <si>
+    <t>TS-5486</t>
+  </si>
+  <si>
+    <t>FCW8205</t>
+  </si>
+  <si>
+    <t>RRP40903</t>
+  </si>
+  <si>
+    <t>EL-2925</t>
+  </si>
+  <si>
+    <t>OFE0749</t>
+  </si>
+  <si>
+    <t>BZ-78956</t>
+  </si>
+  <si>
+    <t>CPU31314</t>
+  </si>
+  <si>
+    <t>ML-2512</t>
+  </si>
+  <si>
+    <t>BMZ2299</t>
+  </si>
+  <si>
+    <t>XB-86941</t>
+  </si>
+  <si>
+    <t>SBV82288</t>
+  </si>
+  <si>
+    <t>1951.42</t>
+  </si>
+  <si>
+    <t>469.92</t>
+  </si>
+  <si>
+    <t>VU-5400</t>
+  </si>
+  <si>
+    <t>GLQ2169</t>
+  </si>
+  <si>
+    <t>HB-83224</t>
+  </si>
+  <si>
+    <t>MTM52851</t>
+  </si>
+  <si>
+    <t>YZ-7348</t>
+  </si>
+  <si>
+    <t>PTN5488</t>
+  </si>
+  <si>
+    <t>SF-04652</t>
+  </si>
+  <si>
+    <t>KBH82177</t>
+  </si>
+  <si>
+    <t>EX-6477</t>
+  </si>
+  <si>
+    <t>CHZ0422</t>
+  </si>
+  <si>
+    <t>FG-06326</t>
+  </si>
+  <si>
+    <t>RJK11484</t>
+  </si>
+  <si>
+    <t>IP-3732</t>
+  </si>
+  <si>
+    <t>ODS9267</t>
+  </si>
+  <si>
+    <t>BN-32547</t>
+  </si>
+  <si>
+    <t>BAP79649</t>
+  </si>
+  <si>
+    <t>AY-7605</t>
+  </si>
+  <si>
+    <t>KEP9304</t>
+  </si>
+  <si>
+    <t>WS-57561</t>
+  </si>
+  <si>
+    <t>NRQ49216</t>
+  </si>
+  <si>
+    <t>BB-8073</t>
+  </si>
+  <si>
+    <t>VLO2197</t>
+  </si>
+  <si>
+    <t>RBX94490</t>
+  </si>
+  <si>
+    <t>LQ-4547</t>
+  </si>
+  <si>
+    <t>VHR0585</t>
+  </si>
+  <si>
+    <t>ZI-13706</t>
+  </si>
+  <si>
+    <t>XOM31015</t>
+  </si>
+  <si>
+    <t>MK-2141</t>
+  </si>
+  <si>
+    <t>RZ-70347</t>
+  </si>
+  <si>
+    <t>UPS33782</t>
+  </si>
+  <si>
+    <t>QU-5377</t>
+  </si>
+  <si>
+    <t>QT-50752</t>
+  </si>
+  <si>
+    <t>TVZ60792</t>
+  </si>
+  <si>
+    <t>EE-9472</t>
+  </si>
+  <si>
+    <t>ZT-55000</t>
+  </si>
+  <si>
+    <t>OV-6147</t>
+  </si>
+  <si>
+    <t>OI-1736</t>
+  </si>
+  <si>
+    <t>AE-9024</t>
+  </si>
+  <si>
+    <t>JE-9565</t>
+  </si>
+  <si>
+    <t>MM-2631</t>
+  </si>
+  <si>
+    <t>SB-8183</t>
+  </si>
+  <si>
+    <t>QW-2750</t>
+  </si>
+  <si>
+    <t>MU-5392</t>
+  </si>
+  <si>
+    <t>IL-2439</t>
+  </si>
+  <si>
+    <t>BYV74116</t>
+  </si>
+  <si>
+    <t>IR-4091</t>
+  </si>
+  <si>
+    <t>BO-35819</t>
+  </si>
+  <si>
+    <t>PPB36817</t>
+  </si>
+  <si>
+    <t>ZG-0252</t>
+  </si>
+  <si>
+    <t>WN-28703</t>
   </si>
 </sst>
 </file>
@@ -1577,16 +2183,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>351</v>
+        <v>524</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>525</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>350</v>
+        <v>526</v>
       </c>
       <c r="E2" s="1"/>
       <c r="K2" s="5" t="s">
@@ -2428,32 +3034,32 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>159</v>
+        <v>478</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1450.22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>160</v>
+        <v>492</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>161</v>
+        <v>493</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>81</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,13 +3079,13 @@
         <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>162</v>
+        <v>490</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>85</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>163</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,13 +3093,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>146</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,13 +3116,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>480</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -2552,13 +3158,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>481</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>93</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,13 +3180,13 @@
         <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>164</v>
+        <v>483</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>149</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>150</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,13 +3202,13 @@
         <v>151</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>152</v>
+        <v>485</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>87</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,7 +3246,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>111</v>
+        <v>486</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>112</v>
@@ -2668,7 +3274,7 @@
         <v>157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>117</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,13 +3424,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>552</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>347</v>
+        <v>554</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>204</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,7 +3440,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>352</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,10 +3453,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>459</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -2890,13 +3496,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>194</v>
+        <v>552</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>195</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,7 +3512,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>189</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,7 +3532,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>191</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -3132,16 +3738,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>344</v>
+        <v>520</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>345</v>
+        <v>521</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>346</v>
+        <v>522</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -3457,16 +4063,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>308</v>
+        <v>512</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>309</v>
+        <v>513</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>310</v>
+        <v>514</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="14" t="s">
@@ -4288,16 +4894,16 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>322</v>
+        <v>527</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>328</v>
+        <v>528</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>329</v>
+        <v>529</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="6" t="s">
@@ -4308,7 +4914,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,7 +4979,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,7 +5003,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>313</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
